--- a/template_raw_data.xlsx
+++ b/template_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbsrbar/Documents/OneDrive - University of Leeds/PhD files_March2020/PhD/Year 2/Spheroid imaging and analysis paper/To send to Lucy/Folder structure and files for running codes/@1 Spheroid Raw Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB03707-4AB7-8547-8C88-4FB5A31FF960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD5BDA-AE56-0B42-921A-50332C909FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="33600" windowHeight="17240" xr2:uid="{00688B0C-5261-49F3-94D8-91CAE641802D}"/>
+    <workbookView xWindow="280" yWindow="1100" windowWidth="33600" windowHeight="17240" xr2:uid="{D38B3CCA-6CD4-452F-92AC-C347CF96FEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="JobView" sheetId="2" r:id="rId1"/>
@@ -229,10 +229,10 @@
     <t>Spheroid Imaging Single Plane with Area</t>
   </si>
   <si>
-    <t>Spheroid_Imaging_Single_Plane_with_Area\20200203_132551_329</t>
-  </si>
-  <si>
-    <t>8b3ed52fc55c430683b0baf886fdee5c</t>
+    <t>Spheroid_Imaging_Single_Plane_with_Area\20200203_131534_501</t>
+  </si>
+  <si>
+    <t>de75e273a8ce4fd09013becd9dfdde3f</t>
   </si>
   <si>
     <t>Capture</t>
@@ -672,7 +672,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CFDD43-AE1A-4EC3-AA3D-DFC5BF05959B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724283A9-736E-497D-90E1-D1DBEF0F3461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,7 +721,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14040BFA-EC5E-4657-8555-AE56B5DF3DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA50612A-A8D4-4F08-B15C-454A87C00DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D9DD55-6911-4605-9B8B-79C651D241A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998C23C9-3252-4489-AA0B-405104415681}">
   <dimension ref="A1:BJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1260,22 +1260,22 @@
         <v>63</v>
       </c>
       <c r="F2" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G2" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H2" t="s">
         <v>64</v>
       </c>
       <c r="I2">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J2" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L2" t="s">
         <v>65</v>
@@ -1284,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="N2" s="1">
-        <v>2.4540509259259258E-4</v>
+        <v>2.3622685185185186E-4</v>
       </c>
       <c r="O2" t="s">
         <v>66</v>
@@ -1320,31 +1320,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD2">
-        <v>116263.91091599999</v>
+        <v>140362.977193</v>
       </c>
       <c r="AE2">
-        <v>116263.91091599999</v>
+        <v>140362.977193</v>
       </c>
       <c r="AF2">
-        <v>1352.18436</v>
+        <v>1593.506707</v>
       </c>
       <c r="AG2">
-        <v>0.79906699999999997</v>
+        <v>0.69463200000000003</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>384.74902100000003</v>
+        <v>422.74778900000001</v>
       </c>
       <c r="AJ2">
-        <v>29821617.252672002</v>
+        <v>39558758.852155998</v>
       </c>
       <c r="AK2">
-        <v>0.92516200000000004</v>
+        <v>0.85148199999999996</v>
       </c>
       <c r="AL2">
-        <v>0.93357199999999996</v>
+        <v>0.95808499999999996</v>
       </c>
       <c r="AM2">
         <v>7</v>
@@ -1395,25 +1395,25 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>5.9969089999999996</v>
+        <v>6.2621789999999997</v>
       </c>
       <c r="BD2">
-        <v>90005.995314</v>
+        <v>90006.260219999996</v>
       </c>
       <c r="BE2">
-        <v>8999.8616999999995</v>
+        <v>8999.8433669999995</v>
       </c>
       <c r="BF2">
-        <v>-40639.199999999997</v>
+        <v>-41606.199999999997</v>
       </c>
       <c r="BG2">
-        <v>-22091.7</v>
+        <v>-22290.7</v>
       </c>
       <c r="BH2">
-        <v>4441.8504999999996</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI2">
-        <v>4441.8500000000004</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ2">
         <v>-5.0000000000000001E-4</v>
@@ -1436,22 +1436,22 @@
         <v>63</v>
       </c>
       <c r="F3" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G3" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
       <c r="I3">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J3" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L3" t="s">
         <v>65</v>
@@ -1460,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="1">
-        <v>2.5636574074074071E-4</v>
+        <v>2.4741898148148149E-4</v>
       </c>
       <c r="O3" t="s">
         <v>66</v>
@@ -1496,31 +1496,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD3">
-        <v>114805.447944</v>
+        <v>132019.06671300001</v>
       </c>
       <c r="AE3">
-        <v>114805.447944</v>
+        <v>132019.06671300001</v>
       </c>
       <c r="AF3">
-        <v>1321.0408090000001</v>
+        <v>1622.7840169999999</v>
       </c>
       <c r="AG3">
-        <v>0.826685</v>
+        <v>0.62997800000000004</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>382.32817899999998</v>
+        <v>409.990117</v>
       </c>
       <c r="AJ3">
-        <v>29262238.549419999</v>
+        <v>36084341.777410999</v>
       </c>
       <c r="AK3">
-        <v>0.92867</v>
+        <v>0.81638500000000003</v>
       </c>
       <c r="AL3">
-        <v>0.95855500000000005</v>
+        <v>0.94522600000000001</v>
       </c>
       <c r="AM3">
         <v>7</v>
@@ -1571,25 +1571,25 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.23932100000000001</v>
+        <v>1.16103</v>
       </c>
       <c r="BD3">
-        <v>81000.195313999997</v>
+        <v>81001.160220000005</v>
       </c>
       <c r="BE3">
-        <v>8999.8616999999995</v>
+        <v>9000.0433670000002</v>
       </c>
       <c r="BF3">
-        <v>-31633.4</v>
+        <v>-32601.1</v>
       </c>
       <c r="BG3">
-        <v>-22091.7</v>
+        <v>-22290.5</v>
       </c>
       <c r="BH3">
-        <v>4441.8504999999996</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI3">
-        <v>4441.8500000000004</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ3">
         <v>-5.0000000000000001E-4</v>
@@ -1612,22 +1612,22 @@
         <v>63</v>
       </c>
       <c r="F4" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J4" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L4" t="s">
         <v>65</v>
@@ -1636,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="1">
-        <v>2.6751157407407404E-4</v>
+        <v>2.587962962962963E-4</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
@@ -1672,31 +1672,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD4">
-        <v>118097.94375200001</v>
+        <v>139136.11563700001</v>
       </c>
       <c r="AE4">
-        <v>118097.94375200001</v>
+        <v>139136.11563700001</v>
       </c>
       <c r="AF4">
-        <v>1383.1882639999999</v>
+        <v>1628.3418389999999</v>
       </c>
       <c r="AG4">
-        <v>0.77569299999999997</v>
+        <v>0.65941499999999997</v>
       </c>
       <c r="AH4">
         <v>1</v>
       </c>
       <c r="AI4">
-        <v>387.77180399999997</v>
+        <v>420.89619199999999</v>
       </c>
       <c r="AJ4">
-        <v>30530035.147929002</v>
+        <v>39041240.837495998</v>
       </c>
       <c r="AK4">
-        <v>0.89418500000000001</v>
+        <v>0.83248900000000003</v>
       </c>
       <c r="AL4">
-        <v>0.97014100000000003</v>
+        <v>0.95148500000000003</v>
       </c>
       <c r="AM4">
         <v>7</v>
@@ -1747,25 +1747,25 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.63831700000000002</v>
+        <v>0.24367</v>
       </c>
       <c r="BD4">
-        <v>71999.995314</v>
+        <v>71999.760219999996</v>
       </c>
       <c r="BE4">
-        <v>8999.3616999999995</v>
+        <v>9000.0433670000002</v>
       </c>
       <c r="BF4">
-        <v>-22633.200000000001</v>
+        <v>-23599.7</v>
       </c>
       <c r="BG4">
-        <v>-22092.2</v>
+        <v>-22290.5</v>
       </c>
       <c r="BH4">
-        <v>4441.8254999999999</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI4">
-        <v>4441.8249999999998</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ4">
         <v>-5.0000000000000001E-4</v>
@@ -1788,22 +1788,22 @@
         <v>63</v>
       </c>
       <c r="F5" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G5" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J5" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L5" t="s">
         <v>65</v>
@@ -1812,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="1">
-        <v>2.7854166666666663E-4</v>
+        <v>2.7005787037037032E-4</v>
       </c>
       <c r="O5" t="s">
         <v>66</v>
@@ -1848,31 +1848,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD5">
-        <v>115174.75831</v>
+        <v>140613.35710200001</v>
       </c>
       <c r="AE5">
-        <v>115174.75831</v>
+        <v>140613.35710200001</v>
       </c>
       <c r="AF5">
-        <v>1339.10373</v>
+        <v>1954.955598</v>
       </c>
       <c r="AG5">
-        <v>0.80712099999999998</v>
+        <v>0.462341</v>
       </c>
       <c r="AH5">
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>382.94262900000001</v>
+        <v>423.12466999999998</v>
       </c>
       <c r="AJ5">
-        <v>29403549.800896</v>
+        <v>39664653.594048001</v>
       </c>
       <c r="AK5">
-        <v>0.91529000000000005</v>
+        <v>0.70347099999999996</v>
       </c>
       <c r="AL5">
-        <v>0.96343299999999998</v>
+        <v>0.93426699999999996</v>
       </c>
       <c r="AM5">
         <v>7</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.70572599999999996</v>
+        <v>0.64124800000000004</v>
       </c>
       <c r="BD5">
-        <v>62999.295314000003</v>
+        <v>62999.360220000002</v>
       </c>
       <c r="BE5">
-        <v>8999.9616999999998</v>
+        <v>9000.0433670000002</v>
       </c>
       <c r="BF5">
-        <v>-13632.5</v>
+        <v>-14599.3</v>
       </c>
       <c r="BG5">
-        <v>-22091.599999999999</v>
+        <v>-22290.5</v>
       </c>
       <c r="BH5">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI5">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ5">
         <v>-5.0000000000000001E-4</v>
@@ -1964,22 +1964,22 @@
         <v>63</v>
       </c>
       <c r="F6" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G6" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H6" t="s">
         <v>64</v>
       </c>
       <c r="I6">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J6" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L6" t="s">
         <v>65</v>
@@ -1988,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="1">
-        <v>2.8996527777777782E-4</v>
+        <v>2.8140046296296295E-4</v>
       </c>
       <c r="O6" t="s">
         <v>66</v>
@@ -2024,31 +2024,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD6">
-        <v>112414.31981</v>
+        <v>143085.85870800001</v>
       </c>
       <c r="AE6">
-        <v>112414.31981</v>
+        <v>143085.85870800001</v>
       </c>
       <c r="AF6">
-        <v>1323.7209740000001</v>
+        <v>1849.9155720000001</v>
       </c>
       <c r="AG6">
-        <v>0.80619200000000002</v>
+        <v>0.52541499999999997</v>
       </c>
       <c r="AH6">
         <v>1</v>
       </c>
       <c r="AI6">
-        <v>378.32572900000002</v>
+        <v>426.828506</v>
       </c>
       <c r="AJ6">
-        <v>28352819.676472001</v>
+        <v>40715415.541787997</v>
       </c>
       <c r="AK6">
-        <v>0.92079699999999998</v>
+        <v>0.74860700000000002</v>
       </c>
       <c r="AL6">
-        <v>0.95084800000000003</v>
+        <v>0.93755200000000005</v>
       </c>
       <c r="AM6">
         <v>7</v>
@@ -2099,25 +2099,25 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.60782599999999998</v>
+        <v>0.441913</v>
       </c>
       <c r="BD6">
-        <v>53999.395314000001</v>
+        <v>53999.560219999999</v>
       </c>
       <c r="BE6">
-        <v>9000.0617000000002</v>
+        <v>9000.0433670000002</v>
       </c>
       <c r="BF6">
-        <v>-4632.6000000000004</v>
+        <v>-5599.5</v>
       </c>
       <c r="BG6">
-        <v>-22091.5</v>
+        <v>-22290.5</v>
       </c>
       <c r="BH6">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI6">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ6">
         <v>-5.0000000000000001E-4</v>
@@ -2140,22 +2140,22 @@
         <v>63</v>
       </c>
       <c r="F7" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
       </c>
       <c r="I7">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J7" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L7" t="s">
         <v>65</v>
@@ -2164,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="N7" s="1">
-        <v>3.0106481481481483E-4</v>
+        <v>2.9260416666666665E-4</v>
       </c>
       <c r="O7" t="s">
         <v>66</v>
@@ -2200,31 +2200,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD7">
-        <v>117428.177495</v>
+        <v>136895.215448</v>
       </c>
       <c r="AE7">
-        <v>117428.177495</v>
+        <v>136895.215448</v>
       </c>
       <c r="AF7">
-        <v>2103.422822</v>
+        <v>1570.502397</v>
       </c>
       <c r="AG7">
-        <v>0.33352500000000002</v>
+        <v>0.69746300000000006</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>386.67066</v>
+        <v>417.49299600000001</v>
       </c>
       <c r="AJ7">
-        <v>30270687.257704001</v>
+        <v>38101862.432993002</v>
       </c>
       <c r="AK7">
-        <v>0.75571500000000003</v>
+        <v>0.85542499999999999</v>
       </c>
       <c r="AL7">
-        <v>0.58399999999999996</v>
+        <v>0.95314100000000002</v>
       </c>
       <c r="AM7">
         <v>7</v>
@@ -2275,25 +2275,25 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>1.1053500000000001</v>
+        <v>1.840651</v>
       </c>
       <c r="BD7">
-        <v>44998.895314000001</v>
+        <v>44998.160219999998</v>
       </c>
       <c r="BE7">
-        <v>8999.9616999999998</v>
+        <v>8999.9433669999999</v>
       </c>
       <c r="BF7">
-        <v>4367.8999999999996</v>
+        <v>3401.9</v>
       </c>
       <c r="BG7">
-        <v>-22091.599999999999</v>
+        <v>-22290.6</v>
       </c>
       <c r="BH7">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI7">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ7">
         <v>-5.0000000000000001E-4</v>
@@ -2316,22 +2316,22 @@
         <v>63</v>
       </c>
       <c r="F8" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H8" t="s">
         <v>64</v>
       </c>
       <c r="I8">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J8" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L8" t="s">
         <v>65</v>
@@ -2340,7 +2340,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="1">
-        <v>3.1218750000000002E-4</v>
+        <v>3.0375000000000004E-4</v>
       </c>
       <c r="O8" t="s">
         <v>66</v>
@@ -2376,31 +2376,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD8">
-        <v>117271.690051</v>
+        <v>138766.80527099999</v>
       </c>
       <c r="AE8">
-        <v>117271.690051</v>
+        <v>138766.80527099999</v>
       </c>
       <c r="AF8">
-        <v>1375.5667100000001</v>
+        <v>1498.530008</v>
       </c>
       <c r="AG8">
-        <v>0.77882499999999999</v>
+        <v>0.77654100000000004</v>
       </c>
       <c r="AH8">
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>386.41293100000001</v>
+        <v>420.33722599999999</v>
       </c>
       <c r="AJ8">
-        <v>30210198.318139002</v>
+        <v>38885902.703644998</v>
       </c>
       <c r="AK8">
-        <v>0.89858199999999999</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.96454899999999999</v>
+        <v>0.96232499999999999</v>
       </c>
       <c r="AM8">
         <v>7</v>
@@ -2451,25 +2451,25 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>0.90678800000000004</v>
+        <v>0.64124800000000004</v>
       </c>
       <c r="BD8">
-        <v>35999.095313999998</v>
+        <v>35999.360220000002</v>
       </c>
       <c r="BE8">
-        <v>9000.0617000000002</v>
+        <v>9000.0433670000002</v>
       </c>
       <c r="BF8">
-        <v>13367.7</v>
+        <v>12400.7</v>
       </c>
       <c r="BG8">
-        <v>-22091.5</v>
+        <v>-22290.5</v>
       </c>
       <c r="BH8">
-        <v>4441.7754999999997</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI8">
-        <v>4441.7749999999996</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ8">
         <v>-5.0000000000000001E-4</v>
@@ -2492,22 +2492,22 @@
         <v>63</v>
       </c>
       <c r="F9" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G9" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H9" t="s">
         <v>64</v>
       </c>
       <c r="I9">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J9" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L9" t="s">
         <v>65</v>
@@ -2516,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="1">
-        <v>3.2327546296296298E-4</v>
+        <v>3.1480324074074077E-4</v>
       </c>
       <c r="O9" t="s">
         <v>66</v>
@@ -2552,31 +2552,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD9">
-        <v>119825.56512699999</v>
+        <v>131699.832329</v>
       </c>
       <c r="AE9">
-        <v>119825.56512699999</v>
+        <v>131699.832329</v>
       </c>
       <c r="AF9">
-        <v>1327.8893410000001</v>
+        <v>1517.7439919999999</v>
       </c>
       <c r="AG9">
-        <v>0.85395600000000005</v>
+        <v>0.71845199999999998</v>
       </c>
       <c r="AH9">
         <v>1</v>
       </c>
       <c r="AI9">
-        <v>390.59780799999999</v>
+        <v>409.49412000000001</v>
       </c>
       <c r="AJ9">
-        <v>31202402.092376001</v>
+        <v>35953537.988339998</v>
       </c>
       <c r="AK9">
-        <v>0.93990700000000005</v>
+        <v>0.86530799999999997</v>
       </c>
       <c r="AL9">
-        <v>0.96664300000000003</v>
+        <v>0.95952599999999999</v>
       </c>
       <c r="AM9">
         <v>7</v>
@@ -2627,25 +2627,25 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>1.0176160000000001</v>
+        <v>0.86246699999999998</v>
       </c>
       <c r="BD9">
-        <v>26998.995314</v>
+        <v>26999.26022</v>
       </c>
       <c r="BE9">
-        <v>9000.1617000000006</v>
+        <v>9000.4433669999999</v>
       </c>
       <c r="BF9">
-        <v>22367.8</v>
+        <v>21400.799999999999</v>
       </c>
       <c r="BG9">
-        <v>-22091.4</v>
+        <v>-22290.1</v>
       </c>
       <c r="BH9">
-        <v>4441.7754999999997</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI9">
-        <v>4441.7749999999996</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ9">
         <v>-5.0000000000000001E-4</v>
@@ -2668,22 +2668,22 @@
         <v>63</v>
       </c>
       <c r="F10" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G10" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H10" t="s">
         <v>64</v>
       </c>
       <c r="I10">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J10" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L10" t="s">
         <v>65</v>
@@ -2692,7 +2692,7 @@
         <v>21</v>
       </c>
       <c r="N10" s="1">
-        <v>3.3421296296296297E-4</v>
+        <v>3.2608796296296292E-4</v>
       </c>
       <c r="O10" t="s">
         <v>66</v>
@@ -2728,31 +2728,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD10">
-        <v>112026.23095</v>
+        <v>138622.83682299999</v>
       </c>
       <c r="AE10">
-        <v>112026.23095</v>
+        <v>138622.83682299999</v>
       </c>
       <c r="AF10">
-        <v>1272.0148859999999</v>
+        <v>1572.467384</v>
       </c>
       <c r="AG10">
-        <v>0.87005200000000005</v>
+        <v>0.70450100000000004</v>
       </c>
       <c r="AH10">
         <v>1</v>
       </c>
       <c r="AI10">
-        <v>377.67211600000002</v>
+        <v>420.119123</v>
       </c>
       <c r="AJ10">
-        <v>28206122.469124001</v>
+        <v>38825403.104199</v>
       </c>
       <c r="AK10">
-        <v>0.94862299999999999</v>
+        <v>0.87250099999999997</v>
       </c>
       <c r="AL10">
-        <v>0.96684800000000004</v>
+        <v>0.92544300000000002</v>
       </c>
       <c r="AM10">
         <v>7</v>
@@ -2803,25 +2803,25 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>1.1553260000000001</v>
+        <v>1.54644</v>
       </c>
       <c r="BD10">
-        <v>17998.895314000001</v>
+        <v>17998.460220000001</v>
       </c>
       <c r="BE10">
-        <v>8999.6617000000006</v>
+        <v>9000.1433670000006</v>
       </c>
       <c r="BF10">
-        <v>31367.9</v>
+        <v>30401.599999999999</v>
       </c>
       <c r="BG10">
-        <v>-22091.9</v>
+        <v>-22290.400000000001</v>
       </c>
       <c r="BH10">
-        <v>4441.7754999999997</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI10">
-        <v>4441.7749999999996</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ10">
         <v>-5.0000000000000001E-4</v>
@@ -2844,22 +2844,22 @@
         <v>63</v>
       </c>
       <c r="F11" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G11" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
       </c>
       <c r="I11">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J11" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L11" t="s">
         <v>65</v>
@@ -2868,7 +2868,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="1">
-        <v>3.4547453703703698E-4</v>
+        <v>3.3744212962962959E-4</v>
       </c>
       <c r="O11" t="s">
         <v>66</v>
@@ -2904,31 +2904,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD11">
-        <v>114135.681687</v>
+        <v>136945.29143000001</v>
       </c>
       <c r="AE11">
-        <v>114135.681687</v>
+        <v>136945.29143000001</v>
       </c>
       <c r="AF11">
-        <v>1268.6604440000001</v>
+        <v>1586.222291</v>
       </c>
       <c r="AG11">
-        <v>0.89112899999999995</v>
+        <v>0.68395700000000004</v>
       </c>
       <c r="AH11">
         <v>1</v>
       </c>
       <c r="AI11">
-        <v>381.21131100000002</v>
+        <v>417.56934799999999</v>
       </c>
       <c r="AJ11">
-        <v>29006541.873881999</v>
+        <v>38122770.716458</v>
       </c>
       <c r="AK11">
-        <v>0.95787500000000003</v>
+        <v>0.85042300000000004</v>
       </c>
       <c r="AL11">
-        <v>0.97123199999999998</v>
+        <v>0.945712</v>
       </c>
       <c r="AM11">
         <v>7</v>
@@ -2979,25 +2979,25 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>1.212599</v>
+        <v>1.6753439999999999</v>
       </c>
       <c r="BD11">
-        <v>8998.7953140000009</v>
+        <v>8998.3602200000005</v>
       </c>
       <c r="BE11">
-        <v>8999.8616999999995</v>
+        <v>9000.3433669999995</v>
       </c>
       <c r="BF11">
-        <v>40368</v>
+        <v>39401.699999999997</v>
       </c>
       <c r="BG11">
-        <v>-22091.7</v>
+        <v>-22290.2</v>
       </c>
       <c r="BH11">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI11">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ11">
         <v>-5.0000000000000001E-4</v>
@@ -3020,22 +3020,22 @@
         <v>63</v>
       </c>
       <c r="F12" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H12" t="s">
         <v>64</v>
       </c>
       <c r="I12">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J12" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L12" t="s">
         <v>65</v>
@@ -3044,7 +3044,7 @@
         <v>25</v>
       </c>
       <c r="N12" s="1">
-        <v>3.7890046296296304E-4</v>
+        <v>3.7064814814814816E-4</v>
       </c>
       <c r="O12" t="s">
         <v>66</v>
@@ -3080,31 +3080,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD12">
-        <v>118723.893526</v>
+        <v>133677.833613</v>
       </c>
       <c r="AE12">
-        <v>118723.893526</v>
+        <v>133677.833613</v>
       </c>
       <c r="AF12">
-        <v>1427.6099369999999</v>
+        <v>1544.817922</v>
       </c>
       <c r="AG12">
-        <v>0.73202999999999996</v>
+        <v>0.70390600000000003</v>
       </c>
       <c r="AH12">
         <v>1</v>
       </c>
       <c r="AI12">
-        <v>388.798092</v>
+        <v>412.55775799999998</v>
       </c>
       <c r="AJ12">
-        <v>30773082.164634001</v>
+        <v>36766551.588142999</v>
       </c>
       <c r="AK12">
-        <v>0.89432999999999996</v>
+        <v>0.86354299999999995</v>
       </c>
       <c r="AL12">
-        <v>0.91523600000000005</v>
+        <v>0.94394500000000003</v>
       </c>
       <c r="AM12">
         <v>7</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>1.4909479999999999</v>
+        <v>1.4685969999999999</v>
       </c>
       <c r="BD12">
-        <v>9001.2953140000009</v>
+        <v>9001.4602200000008</v>
       </c>
       <c r="BE12">
-        <v>17999.261699999999</v>
+        <v>17999.843367000001</v>
       </c>
       <c r="BF12">
-        <v>40365.5</v>
+        <v>39398.6</v>
       </c>
       <c r="BG12">
-        <v>-13092.3</v>
+        <v>-13290.7</v>
       </c>
       <c r="BH12">
-        <v>4441.7505000000001</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI12">
-        <v>4441.75</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ12">
         <v>-5.0000000000000001E-4</v>
@@ -3196,22 +3196,22 @@
         <v>63</v>
       </c>
       <c r="F13" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G13" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H13" t="s">
         <v>64</v>
       </c>
       <c r="I13">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J13" t="s">
         <v>63</v>
       </c>
       <c r="K13" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L13" t="s">
         <v>65</v>
@@ -3220,7 +3220,7 @@
         <v>26</v>
       </c>
       <c r="N13" s="1">
-        <v>3.9021990740740749E-4</v>
+        <v>3.8182870370370372E-4</v>
       </c>
       <c r="O13" t="s">
         <v>66</v>
@@ -3256,31 +3256,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD13">
-        <v>113991.713239</v>
+        <v>128795.42538</v>
       </c>
       <c r="AE13">
-        <v>113991.713239</v>
+        <v>128795.42538</v>
       </c>
       <c r="AF13">
-        <v>1284.3803379999999</v>
+        <v>1554.4044630000001</v>
       </c>
       <c r="AG13">
-        <v>0.86835200000000001</v>
+        <v>0.66985700000000004</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>380.97080899999997</v>
+        <v>404.95361300000002</v>
       </c>
       <c r="AJ13">
-        <v>28951676.783695001</v>
+        <v>34770781.906943999</v>
       </c>
       <c r="AK13">
-        <v>0.94786899999999996</v>
+        <v>0.84153800000000001</v>
       </c>
       <c r="AL13">
-        <v>0.96649399999999996</v>
+        <v>0.94587699999999997</v>
       </c>
       <c r="AM13">
         <v>7</v>
@@ -3331,25 +3331,25 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>3.3039190000000001</v>
+        <v>2.5608460000000002</v>
       </c>
       <c r="BD13">
-        <v>18003.295313999999</v>
+        <v>18002.560219999999</v>
       </c>
       <c r="BE13">
-        <v>17999.761699999999</v>
+        <v>17999.943367</v>
       </c>
       <c r="BF13">
-        <v>31363.5</v>
+        <v>30397.5</v>
       </c>
       <c r="BG13">
-        <v>-13091.8</v>
+        <v>-13290.6</v>
       </c>
       <c r="BH13">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI13">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ13">
         <v>-5.0000000000000001E-4</v>
@@ -3372,22 +3372,22 @@
         <v>63</v>
       </c>
       <c r="F14" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G14" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
       </c>
       <c r="I14">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J14" t="s">
         <v>63</v>
       </c>
       <c r="K14" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L14" t="s">
         <v>65</v>
@@ -3396,7 +3396,7 @@
         <v>27</v>
       </c>
       <c r="N14" s="1">
-        <v>4.0144675925925932E-4</v>
+        <v>3.9314814814814817E-4</v>
       </c>
       <c r="O14" t="s">
         <v>66</v>
@@ -3432,31 +3432,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD14">
-        <v>118035.34877500001</v>
+        <v>140569.540618</v>
       </c>
       <c r="AE14">
-        <v>118035.34877500001</v>
+        <v>140569.540618</v>
       </c>
       <c r="AF14">
-        <v>1334.261086</v>
+        <v>1640.5097989999999</v>
       </c>
       <c r="AG14">
-        <v>0.83318300000000001</v>
+        <v>0.656362</v>
       </c>
       <c r="AH14">
         <v>1</v>
       </c>
       <c r="AI14">
-        <v>387.66902599999997</v>
+        <v>423.05874</v>
       </c>
       <c r="AJ14">
-        <v>30505765.797187001</v>
+        <v>39646115.203006998</v>
       </c>
       <c r="AK14">
-        <v>0.92897600000000002</v>
+        <v>0.83329699999999995</v>
       </c>
       <c r="AL14">
-        <v>0.96545400000000003</v>
+        <v>0.94524300000000006</v>
       </c>
       <c r="AM14">
         <v>7</v>
@@ -3507,25 +3507,25 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>2.8157100000000002</v>
+        <v>3.4902199999999999</v>
       </c>
       <c r="BD14">
-        <v>27002.795313999999</v>
+        <v>27003.460220000001</v>
       </c>
       <c r="BE14">
-        <v>17999.661700000001</v>
+        <v>17999.543366999998</v>
       </c>
       <c r="BF14">
-        <v>22364</v>
+        <v>21396.6</v>
       </c>
       <c r="BG14">
-        <v>-13091.9</v>
+        <v>-13291</v>
       </c>
       <c r="BH14">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI14">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ14">
         <v>-5.0000000000000001E-4</v>
@@ -3548,22 +3548,22 @@
         <v>63</v>
       </c>
       <c r="F15" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G15" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H15" t="s">
         <v>64</v>
       </c>
       <c r="I15">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J15" t="s">
         <v>63</v>
       </c>
       <c r="K15" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L15" t="s">
         <v>65</v>
@@ -3572,7 +3572,7 @@
         <v>28</v>
       </c>
       <c r="N15" s="1">
-        <v>4.1275462962962961E-4</v>
+        <v>4.0429398148148144E-4</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -3608,31 +3608,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD15">
-        <v>115850.78406599999</v>
+        <v>136632.31654299999</v>
       </c>
       <c r="AE15">
-        <v>115850.78406599999</v>
+        <v>136632.31654299999</v>
       </c>
       <c r="AF15">
-        <v>1350.5565120000001</v>
+        <v>1514.3895500000001</v>
       </c>
       <c r="AG15">
-        <v>0.79814799999999997</v>
+        <v>0.74866600000000005</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15">
-        <v>384.06483800000001</v>
+        <v>417.09191900000002</v>
       </c>
       <c r="AJ15">
-        <v>29662808.386771999</v>
+        <v>37992156.694519997</v>
       </c>
       <c r="AK15">
-        <v>0.90723100000000001</v>
+        <v>0.88114300000000001</v>
       </c>
       <c r="AL15">
-        <v>0.969723</v>
+        <v>0.96426400000000001</v>
       </c>
       <c r="AM15">
         <v>7</v>
@@ -3683,25 +3683,25 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>2.4338709999999999</v>
+        <v>2.0761419999999999</v>
       </c>
       <c r="BD15">
-        <v>36002.095313999998</v>
+        <v>36002.060219999999</v>
       </c>
       <c r="BE15">
-        <v>17998.761699999999</v>
+        <v>17999.743366999999</v>
       </c>
       <c r="BF15">
-        <v>13364.7</v>
+        <v>12398</v>
       </c>
       <c r="BG15">
-        <v>-13092.8</v>
+        <v>-13290.8</v>
       </c>
       <c r="BH15">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI15">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ15">
         <v>-5.0000000000000001E-4</v>
@@ -3724,22 +3724,22 @@
         <v>63</v>
       </c>
       <c r="F16" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G16" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H16" t="s">
         <v>64</v>
       </c>
       <c r="I16">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J16" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L16" t="s">
         <v>65</v>
@@ -3748,7 +3748,7 @@
         <v>29</v>
       </c>
       <c r="N16" s="1">
-        <v>4.2393518518518523E-4</v>
+        <v>4.1576388888888886E-4</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
@@ -3784,31 +3784,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD16">
-        <v>115531.549681</v>
+        <v>134372.637861</v>
       </c>
       <c r="AE16">
-        <v>115531.549681</v>
+        <v>134372.637861</v>
       </c>
       <c r="AF16">
-        <v>1309.152143</v>
+        <v>1455.7361840000001</v>
       </c>
       <c r="AG16">
-        <v>0.84709100000000004</v>
+        <v>0.79681100000000005</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16">
-        <v>383.53531500000003</v>
+        <v>413.62852400000003</v>
       </c>
       <c r="AJ16">
-        <v>29540286.186239</v>
+        <v>37053570.618539996</v>
       </c>
       <c r="AK16">
-        <v>0.93119200000000002</v>
+        <v>0.90658300000000003</v>
       </c>
       <c r="AL16">
-        <v>0.97690399999999999</v>
+        <v>0.96948400000000001</v>
       </c>
       <c r="AM16">
         <v>7</v>
@@ -3859,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>2.2994759999999999</v>
+        <v>1.6980919999999999</v>
       </c>
       <c r="BD16">
-        <v>45002.295314000003</v>
+        <v>45001.660219999998</v>
       </c>
       <c r="BE16">
-        <v>17999.861700000001</v>
+        <v>17999.643367000001</v>
       </c>
       <c r="BF16">
-        <v>4364.5</v>
+        <v>3398.4</v>
       </c>
       <c r="BG16">
-        <v>-13091.7</v>
+        <v>-13290.9</v>
       </c>
       <c r="BH16">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI16">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ16">
         <v>-5.0000000000000001E-4</v>
@@ -3900,22 +3900,22 @@
         <v>63</v>
       </c>
       <c r="F17" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G17" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H17" t="s">
         <v>64</v>
       </c>
       <c r="I17">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J17" t="s">
         <v>63</v>
       </c>
       <c r="K17" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L17" t="s">
         <v>65</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="1">
-        <v>4.3503472222222229E-4</v>
+        <v>4.2697916666666665E-4</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
@@ -3960,31 +3960,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD17">
-        <v>113397.060954</v>
+        <v>137890.475588</v>
       </c>
       <c r="AE17">
-        <v>113397.060954</v>
+        <v>137890.475588</v>
       </c>
       <c r="AF17">
-        <v>1346.527793</v>
+        <v>1522.1507509999999</v>
       </c>
       <c r="AG17">
-        <v>0.78592499999999998</v>
+        <v>0.74787499999999996</v>
       </c>
       <c r="AH17">
         <v>1</v>
       </c>
       <c r="AI17">
-        <v>379.975818</v>
+        <v>419.00788299999999</v>
       </c>
       <c r="AJ17">
-        <v>28725427.329686001</v>
+        <v>38518130.879185997</v>
       </c>
       <c r="AK17">
-        <v>0.89609799999999995</v>
+        <v>0.88035200000000002</v>
       </c>
       <c r="AL17">
-        <v>0.978746</v>
+        <v>0.964974</v>
       </c>
       <c r="AM17">
         <v>7</v>
@@ -4035,25 +4035,25 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>2.662156</v>
+        <v>2.5730499999999998</v>
       </c>
       <c r="BD17">
-        <v>54002.395314000001</v>
+        <v>54002.560219999999</v>
       </c>
       <c r="BE17">
-        <v>18001.161700000001</v>
+        <v>17999.743366999999</v>
       </c>
       <c r="BF17">
-        <v>-4635.6000000000004</v>
+        <v>-5602.5</v>
       </c>
       <c r="BG17">
-        <v>-13090.4</v>
+        <v>-13290.8</v>
       </c>
       <c r="BH17">
-        <v>4441.8005000000003</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI17">
-        <v>4441.8</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ17">
         <v>-5.0000000000000001E-4</v>
@@ -4076,22 +4076,22 @@
         <v>63</v>
       </c>
       <c r="F18" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G18" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H18" t="s">
         <v>64</v>
       </c>
       <c r="I18">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J18" t="s">
         <v>63</v>
       </c>
       <c r="K18" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L18" t="s">
         <v>65</v>
@@ -4100,7 +4100,7 @@
         <v>31</v>
       </c>
       <c r="N18" s="1">
-        <v>4.4622685185185189E-4</v>
+        <v>4.3831018518518519E-4</v>
       </c>
       <c r="O18" t="s">
         <v>66</v>
@@ -4136,31 +4136,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD18">
-        <v>118830.304987</v>
+        <v>130472.97077299999</v>
       </c>
       <c r="AE18">
-        <v>118830.304987</v>
+        <v>130472.97077299999</v>
       </c>
       <c r="AF18">
-        <v>1374.2760000000001</v>
+        <v>1473.421065</v>
       </c>
       <c r="AG18">
-        <v>0.790659</v>
+        <v>0.75522599999999995</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>388.97229099999998</v>
+        <v>407.58231799999999</v>
       </c>
       <c r="AJ18">
-        <v>30814464.006907001</v>
+        <v>35452317.238498002</v>
       </c>
       <c r="AK18">
-        <v>0.90832900000000005</v>
+        <v>0.88270700000000002</v>
       </c>
       <c r="AL18">
-        <v>0.95830199999999999</v>
+        <v>0.96926699999999999</v>
       </c>
       <c r="AM18">
         <v>7</v>
@@ -4211,25 +4211,25 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>1.3966769999999999</v>
+        <v>1.1707449999999999</v>
       </c>
       <c r="BD18">
-        <v>63001.395314000001</v>
+        <v>63001.160219999998</v>
       </c>
       <c r="BE18">
-        <v>18000.061699999998</v>
+        <v>17999.843367000001</v>
       </c>
       <c r="BF18">
-        <v>-13634.6</v>
+        <v>-14601.1</v>
       </c>
       <c r="BG18">
-        <v>-13091.5</v>
+        <v>-13290.7</v>
       </c>
       <c r="BH18">
-        <v>4441.8005000000003</v>
+        <v>4399.9004999999997</v>
       </c>
       <c r="BI18">
-        <v>4441.8</v>
+        <v>4399.8999999999996</v>
       </c>
       <c r="BJ18">
         <v>-5.0000000000000001E-4</v>
@@ -4252,22 +4252,22 @@
         <v>63</v>
       </c>
       <c r="F19" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G19" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
       </c>
       <c r="I19">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J19" t="s">
         <v>63</v>
       </c>
       <c r="K19" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L19" t="s">
         <v>65</v>
@@ -4276,7 +4276,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="1">
-        <v>4.5725694444444443E-4</v>
+        <v>4.4981481481481478E-4</v>
       </c>
       <c r="O19" t="s">
         <v>66</v>
@@ -4312,31 +4312,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD19">
-        <v>113960.41575</v>
+        <v>128069.323643</v>
       </c>
       <c r="AE19">
-        <v>113960.41575</v>
+        <v>128069.323643</v>
       </c>
       <c r="AF19">
-        <v>1440.6905670000001</v>
+        <v>1451.4690720000001</v>
       </c>
       <c r="AG19">
-        <v>0.68995799999999996</v>
+        <v>0.76390499999999995</v>
       </c>
       <c r="AH19">
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>380.91850599999998</v>
+        <v>403.81050900000002</v>
       </c>
       <c r="AJ19">
-        <v>28939754.172584999</v>
+        <v>34477159.194338001</v>
       </c>
       <c r="AK19">
-        <v>0.86343899999999996</v>
+        <v>0.89045300000000005</v>
       </c>
       <c r="AL19">
-        <v>0.92546399999999995</v>
+        <v>0.96342300000000003</v>
       </c>
       <c r="AM19">
         <v>7</v>
@@ -4387,25 +4387,25 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>1.601297</v>
+        <v>1.4685969999999999</v>
       </c>
       <c r="BD19">
-        <v>72001.595314000006</v>
+        <v>72001.460219999994</v>
       </c>
       <c r="BE19">
-        <v>17999.861700000001</v>
+        <v>17999.843367000001</v>
       </c>
       <c r="BF19">
-        <v>-22634.799999999999</v>
+        <v>-23601.4</v>
       </c>
       <c r="BG19">
-        <v>-13091.7</v>
+        <v>-13290.7</v>
       </c>
       <c r="BH19">
-        <v>4441.8254999999999</v>
+        <v>4399.9004999999997</v>
       </c>
       <c r="BI19">
-        <v>4441.8249999999998</v>
+        <v>4399.8999999999996</v>
       </c>
       <c r="BJ19">
         <v>-5.0000000000000001E-4</v>
@@ -4428,22 +4428,22 @@
         <v>63</v>
       </c>
       <c r="F20" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G20" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H20" t="s">
         <v>64</v>
       </c>
       <c r="I20">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J20" t="s">
         <v>63</v>
       </c>
       <c r="K20" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L20" t="s">
         <v>65</v>
@@ -4452,7 +4452,7 @@
         <v>33</v>
       </c>
       <c r="N20" s="1">
-        <v>4.6836805555555558E-4</v>
+        <v>4.6106481481481476E-4</v>
       </c>
       <c r="O20" t="s">
         <v>66</v>
@@ -4488,31 +4488,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD20">
-        <v>114542.549039</v>
+        <v>124651.63787999999</v>
       </c>
       <c r="AE20">
-        <v>114542.549039</v>
+        <v>124651.63787999999</v>
       </c>
       <c r="AF20">
-        <v>1342.359426</v>
+        <v>1547.1200470000001</v>
       </c>
       <c r="AG20">
-        <v>0.79880200000000001</v>
+        <v>0.65442500000000003</v>
       </c>
       <c r="AH20">
         <v>1</v>
       </c>
       <c r="AI20">
-        <v>381.89017100000001</v>
+        <v>398.385987</v>
       </c>
       <c r="AJ20">
-        <v>29161782.454766002</v>
+        <v>33106310.528170999</v>
       </c>
       <c r="AK20">
-        <v>0.91858499999999998</v>
+        <v>0.83668200000000004</v>
       </c>
       <c r="AL20">
-        <v>0.94667299999999999</v>
+        <v>0.93484299999999998</v>
       </c>
       <c r="AM20">
         <v>7</v>
@@ -4563,25 +4563,25 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>0.79770300000000005</v>
+        <v>0.86208200000000001</v>
       </c>
       <c r="BD20">
-        <v>81000.795314000003</v>
+        <v>81000.860220000002</v>
       </c>
       <c r="BE20">
-        <v>18000.061699999998</v>
+        <v>17999.943367</v>
       </c>
       <c r="BF20">
-        <v>-31634</v>
+        <v>-32600.799999999999</v>
       </c>
       <c r="BG20">
-        <v>-13091.5</v>
+        <v>-13290.6</v>
       </c>
       <c r="BH20">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI20">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ20">
         <v>-5.0000000000000001E-4</v>
@@ -4604,22 +4604,22 @@
         <v>63</v>
       </c>
       <c r="F21" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H21" t="s">
         <v>64</v>
       </c>
       <c r="I21">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J21" t="s">
         <v>63</v>
       </c>
       <c r="K21" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L21" t="s">
         <v>65</v>
@@ -4628,7 +4628,7 @@
         <v>34</v>
       </c>
       <c r="N21" s="1">
-        <v>4.7939814814814812E-4</v>
+        <v>4.7223379629629633E-4</v>
       </c>
       <c r="O21" t="s">
         <v>66</v>
@@ -4664,31 +4664,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD21">
-        <v>115437.657215</v>
+        <v>131975.250229</v>
       </c>
       <c r="AE21">
-        <v>115437.657215</v>
+        <v>131975.250229</v>
       </c>
       <c r="AF21">
-        <v>1278.7237700000001</v>
+        <v>1518.08113</v>
       </c>
       <c r="AG21">
-        <v>0.88716399999999995</v>
+        <v>0.71963500000000002</v>
       </c>
       <c r="AH21">
         <v>1</v>
       </c>
       <c r="AI21">
-        <v>383.379434</v>
+        <v>409.92207500000001</v>
       </c>
       <c r="AJ21">
-        <v>29504282.427267</v>
+        <v>36066378.942584001</v>
       </c>
       <c r="AK21">
-        <v>0.95241600000000004</v>
+        <v>0.87129199999999996</v>
       </c>
       <c r="AL21">
-        <v>0.97802599999999995</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="AM21">
         <v>7</v>
@@ -4739,25 +4739,25 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>0.314139</v>
+        <v>0.65867500000000001</v>
       </c>
       <c r="BD21">
-        <v>89999.795314000003</v>
+        <v>89999.360220000002</v>
       </c>
       <c r="BE21">
-        <v>17999.761699999999</v>
+        <v>17999.843367000001</v>
       </c>
       <c r="BF21">
-        <v>-40633</v>
+        <v>-41599.300000000003</v>
       </c>
       <c r="BG21">
-        <v>-13091.8</v>
+        <v>-13290.7</v>
       </c>
       <c r="BH21">
-        <v>4441.8254999999999</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI21">
-        <v>4441.8249999999998</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ21">
         <v>-5.0000000000000001E-4</v>
@@ -4780,22 +4780,22 @@
         <v>63</v>
       </c>
       <c r="F22" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H22" t="s">
         <v>64</v>
       </c>
       <c r="I22">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J22" t="s">
         <v>63</v>
       </c>
       <c r="K22" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L22" t="s">
         <v>65</v>
@@ -4804,7 +4804,7 @@
         <v>37</v>
       </c>
       <c r="N22" s="1">
-        <v>5.127777777777778E-4</v>
+        <v>5.0585648148148148E-4</v>
       </c>
       <c r="O22" t="s">
         <v>66</v>
@@ -4840,31 +4840,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD22">
-        <v>108283.051305</v>
+        <v>130416.635293</v>
       </c>
       <c r="AE22">
-        <v>108283.051305</v>
+        <v>130416.635293</v>
       </c>
       <c r="AF22">
-        <v>1272.9275560000001</v>
+        <v>1499.681071</v>
       </c>
       <c r="AG22">
-        <v>0.83977500000000005</v>
+        <v>0.72869399999999995</v>
       </c>
       <c r="AH22">
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>371.308851</v>
+        <v>407.49431600000003</v>
       </c>
       <c r="AJ22">
-        <v>26804303.586422</v>
+        <v>35429358.371871002</v>
       </c>
       <c r="AK22">
-        <v>0.93555999999999995</v>
+        <v>0.87677000000000005</v>
       </c>
       <c r="AL22">
-        <v>0.95944499999999999</v>
+        <v>0.94792399999999999</v>
       </c>
       <c r="AM22">
         <v>7</v>
@@ -4915,25 +4915,25 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>5.49566</v>
+        <v>5.9861560000000003</v>
       </c>
       <c r="BD22">
-        <v>90005.495314</v>
+        <v>90005.960219999994</v>
       </c>
       <c r="BE22">
-        <v>27000.061699999998</v>
+        <v>26999.443367</v>
       </c>
       <c r="BF22">
-        <v>-40638.699999999997</v>
+        <v>-41605.9</v>
       </c>
       <c r="BG22">
-        <v>-4091.5</v>
+        <v>-4291.1000000000004</v>
       </c>
       <c r="BH22">
-        <v>4441.9004999999997</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI22">
-        <v>4441.8999999999996</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ22">
         <v>-5.0000000000000001E-4</v>
@@ -4956,22 +4956,22 @@
         <v>63</v>
       </c>
       <c r="F23" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G23" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H23" t="s">
         <v>64</v>
       </c>
       <c r="I23">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J23" t="s">
         <v>63</v>
       </c>
       <c r="K23" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L23" t="s">
         <v>65</v>
@@ -4980,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="N23" s="1">
-        <v>5.2405092592592586E-4</v>
+        <v>5.170138888888889E-4</v>
       </c>
       <c r="O23" t="s">
         <v>66</v>
@@ -5016,31 +5016,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD23">
-        <v>110905.780856</v>
+        <v>127512.228345</v>
       </c>
       <c r="AE23">
-        <v>110905.780856</v>
+        <v>127512.228345</v>
       </c>
       <c r="AF23">
-        <v>1240.5341960000001</v>
+        <v>1495.9894899999999</v>
       </c>
       <c r="AG23">
-        <v>0.90562100000000001</v>
+        <v>0.71598600000000001</v>
       </c>
       <c r="AH23">
         <v>1</v>
       </c>
       <c r="AI23">
-        <v>375.77869299999998</v>
+        <v>402.93127399999997</v>
       </c>
       <c r="AJ23">
-        <v>27784019.5656</v>
+        <v>34252443.078167997</v>
       </c>
       <c r="AK23">
-        <v>0.96493099999999998</v>
+        <v>0.86367300000000002</v>
       </c>
       <c r="AL23">
-        <v>0.97264399999999995</v>
+        <v>0.95985600000000004</v>
       </c>
       <c r="AM23">
         <v>7</v>
@@ -5091,25 +5091,25 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>0.20482800000000001</v>
+        <v>1.260966</v>
       </c>
       <c r="BD23">
-        <v>81000.195313999997</v>
+        <v>81001.260219999996</v>
       </c>
       <c r="BE23">
-        <v>27000.061699999998</v>
+        <v>27000.043366999998</v>
       </c>
       <c r="BF23">
-        <v>-31633.4</v>
+        <v>-32601.200000000001</v>
       </c>
       <c r="BG23">
-        <v>-4091.5</v>
+        <v>-4290.5</v>
       </c>
       <c r="BH23">
-        <v>4441.8504999999996</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI23">
-        <v>4441.8500000000004</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ23">
         <v>-5.0000000000000001E-4</v>
@@ -5132,22 +5132,22 @@
         <v>63</v>
       </c>
       <c r="F24" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G24" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H24" t="s">
         <v>64</v>
       </c>
       <c r="I24">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J24" t="s">
         <v>63</v>
       </c>
       <c r="K24" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L24" t="s">
         <v>65</v>
@@ -5156,7 +5156,7 @@
         <v>39</v>
       </c>
       <c r="N24" s="1">
-        <v>5.3531249999999998E-4</v>
+        <v>5.2843749999999994E-4</v>
       </c>
       <c r="O24" t="s">
         <v>66</v>
@@ -5192,31 +5192,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD24">
-        <v>113090.345565</v>
+        <v>133239.668772</v>
       </c>
       <c r="AE24">
-        <v>113090.345565</v>
+        <v>133239.668772</v>
       </c>
       <c r="AF24">
-        <v>1331.00539</v>
+        <v>1490.670061</v>
       </c>
       <c r="AG24">
-        <v>0.80218699999999998</v>
+        <v>0.75349500000000003</v>
       </c>
       <c r="AH24">
         <v>1</v>
       </c>
       <c r="AI24">
-        <v>379.461592</v>
+        <v>411.88106900000002</v>
       </c>
       <c r="AJ24">
-        <v>28608961.741521001</v>
+        <v>36585931.493504003</v>
       </c>
       <c r="AK24">
-        <v>0.90889399999999998</v>
+        <v>0.884405</v>
       </c>
       <c r="AL24">
-        <v>0.97106700000000001</v>
+        <v>0.963337</v>
       </c>
       <c r="AM24">
         <v>7</v>
@@ -5267,25 +5267,25 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>0.19903399999999999</v>
+        <v>6.9208000000000006E-2</v>
       </c>
       <c r="BD24">
-        <v>72000.195313999997</v>
+        <v>71999.960219999994</v>
       </c>
       <c r="BE24">
-        <v>26999.9617</v>
+        <v>26999.943367</v>
       </c>
       <c r="BF24">
-        <v>-22633.4</v>
+        <v>-23599.9</v>
       </c>
       <c r="BG24">
-        <v>-4091.6</v>
+        <v>-4290.6000000000004</v>
       </c>
       <c r="BH24">
-        <v>4441.8005000000003</v>
+        <v>4399.8755000000001</v>
       </c>
       <c r="BI24">
-        <v>4441.8</v>
+        <v>4399.875</v>
       </c>
       <c r="BJ24">
         <v>-5.0000000000000001E-4</v>
@@ -5308,22 +5308,22 @@
         <v>63</v>
       </c>
       <c r="F25" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G25" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H25" t="s">
         <v>64</v>
       </c>
       <c r="I25">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J25" t="s">
         <v>63</v>
       </c>
       <c r="K25" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L25" t="s">
         <v>65</v>
@@ -5332,7 +5332,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="1">
-        <v>5.4634259259259263E-4</v>
+        <v>5.3973379629629629E-4</v>
       </c>
       <c r="O25" t="s">
         <v>66</v>
@@ -5368,31 +5368,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD25">
-        <v>115919.63854099999</v>
+        <v>136000.10727199999</v>
       </c>
       <c r="AE25">
-        <v>115919.63854099999</v>
+        <v>136000.10727199999</v>
       </c>
       <c r="AF25">
-        <v>1338.1910600000001</v>
+        <v>1482.2345829999999</v>
       </c>
       <c r="AG25">
-        <v>0.81345000000000001</v>
+        <v>0.77788500000000005</v>
       </c>
       <c r="AH25">
         <v>1</v>
       </c>
       <c r="AI25">
-        <v>384.17895299999998</v>
+        <v>416.12583999999998</v>
       </c>
       <c r="AJ25">
-        <v>29689256.898430999</v>
+        <v>37728772.580590002</v>
       </c>
       <c r="AK25">
-        <v>0.91640200000000005</v>
+        <v>0.89957100000000001</v>
       </c>
       <c r="AL25">
-        <v>0.96863200000000005</v>
+        <v>0.96126800000000001</v>
       </c>
       <c r="AM25">
         <v>7</v>
@@ -5443,25 +5443,25 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>0.60589800000000005</v>
+        <v>0.94148500000000002</v>
       </c>
       <c r="BD25">
-        <v>62999.395314000001</v>
+        <v>62999.060219999999</v>
       </c>
       <c r="BE25">
-        <v>26999.9617</v>
+        <v>26999.943367</v>
       </c>
       <c r="BF25">
-        <v>-13632.6</v>
+        <v>-14599</v>
       </c>
       <c r="BG25">
-        <v>-4091.6</v>
+        <v>-4290.6000000000004</v>
       </c>
       <c r="BH25">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI25">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ25">
         <v>-5.0000000000000001E-4</v>
@@ -5484,22 +5484,22 @@
         <v>63</v>
       </c>
       <c r="F26" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G26" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H26" t="s">
         <v>64</v>
       </c>
       <c r="I26">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J26" t="s">
         <v>63</v>
       </c>
       <c r="K26" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L26" t="s">
         <v>65</v>
@@ -5508,7 +5508,7 @@
         <v>41</v>
       </c>
       <c r="N26" s="1">
-        <v>5.5755787037037048E-4</v>
+        <v>5.5108796296296297E-4</v>
       </c>
       <c r="O26" t="s">
         <v>66</v>
@@ -5544,10 +5544,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>143142.19418699999</v>
+      </c>
+      <c r="AE26">
+        <v>143142.19418699999</v>
+      </c>
+      <c r="AF26">
+        <v>1711.191478</v>
+      </c>
+      <c r="AG26">
+        <v>0.61429999999999996</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>426.91252300000002</v>
+      </c>
+      <c r="AJ26">
+        <v>40739463.497028999</v>
+      </c>
+      <c r="AK26">
+        <v>0.80100300000000002</v>
+      </c>
+      <c r="AL26">
+        <v>0.95743999999999996</v>
       </c>
       <c r="AM26">
         <v>7</v>
@@ -5598,25 +5619,25 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>0.50613699999999995</v>
+        <v>0.20023099999999999</v>
       </c>
       <c r="BD26">
-        <v>53999.495314</v>
+        <v>53999.860220000002</v>
       </c>
       <c r="BE26">
-        <v>26999.9617</v>
+        <v>27000.143367000001</v>
       </c>
       <c r="BF26">
-        <v>-4632.7</v>
+        <v>-5599.8</v>
       </c>
       <c r="BG26">
-        <v>-4091.6</v>
+        <v>-4290.3999999999996</v>
       </c>
       <c r="BH26">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI26">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ26">
         <v>-5.0000000000000001E-4</v>
@@ -5639,22 +5660,22 @@
         <v>63</v>
       </c>
       <c r="F27" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H27" t="s">
         <v>64</v>
       </c>
       <c r="I27">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J27" t="s">
         <v>63</v>
       </c>
       <c r="K27" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L27" t="s">
         <v>65</v>
@@ -5663,7 +5684,7 @@
         <v>42</v>
       </c>
       <c r="N27" s="1">
-        <v>5.6862268518518514E-4</v>
+        <v>5.6228009259259263E-4</v>
       </c>
       <c r="O27" t="s">
         <v>66</v>
@@ -5699,31 +5720,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD27">
-        <v>118273.209689</v>
+        <v>137733.98814500001</v>
       </c>
       <c r="AE27">
-        <v>118273.209689</v>
+        <v>137733.98814500001</v>
       </c>
       <c r="AF27">
-        <v>1513.715273</v>
+        <v>1533.028002</v>
       </c>
       <c r="AG27">
-        <v>0.64864599999999994</v>
+        <v>0.73646299999999998</v>
       </c>
       <c r="AH27">
         <v>1</v>
       </c>
       <c r="AI27">
-        <v>388.059438</v>
+        <v>418.77005700000001</v>
       </c>
       <c r="AJ27">
-        <v>30598023.545708999</v>
+        <v>38452580.013452999</v>
       </c>
       <c r="AK27">
-        <v>0.83282199999999995</v>
+        <v>0.87204899999999996</v>
       </c>
       <c r="AL27">
-        <v>0.93519799999999997</v>
+        <v>0.96843199999999996</v>
       </c>
       <c r="AM27">
         <v>7</v>
@@ -5774,25 +5795,25 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>1.0065789999999999</v>
+        <v>1.5403899999999999</v>
       </c>
       <c r="BD27">
-        <v>44998.995314</v>
+        <v>44998.460220000001</v>
       </c>
       <c r="BE27">
-        <v>27000.061699999998</v>
+        <v>27000.043366999998</v>
       </c>
       <c r="BF27">
-        <v>4367.8</v>
+        <v>3401.6</v>
       </c>
       <c r="BG27">
-        <v>-4091.5</v>
+        <v>-4290.5</v>
       </c>
       <c r="BH27">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI27">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ27">
         <v>-5.0000000000000001E-4</v>
@@ -5815,22 +5836,22 @@
         <v>63</v>
       </c>
       <c r="F28" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G28" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H28" t="s">
         <v>64</v>
       </c>
       <c r="I28">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J28" t="s">
         <v>63</v>
       </c>
       <c r="K28" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L28" t="s">
         <v>65</v>
@@ -5839,7 +5860,7 @@
         <v>43</v>
       </c>
       <c r="N28" s="1">
-        <v>5.7973379629629629E-4</v>
+        <v>5.7337962962962963E-4</v>
       </c>
       <c r="O28" t="s">
         <v>66</v>
@@ -5875,31 +5896,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD28">
-        <v>116076.125984</v>
+        <v>132932.95338299999</v>
       </c>
       <c r="AE28">
-        <v>116076.125984</v>
+        <v>132932.95338299999</v>
       </c>
       <c r="AF28">
-        <v>1362.7244720000001</v>
+        <v>1497.954477</v>
       </c>
       <c r="AG28">
-        <v>0.78548300000000004</v>
+        <v>0.74446699999999999</v>
       </c>
       <c r="AH28">
         <v>1</v>
       </c>
       <c r="AI28">
-        <v>384.43817899999999</v>
+        <v>411.40672499999999</v>
       </c>
       <c r="AJ28">
-        <v>29749396.365685001</v>
+        <v>36459673.961567</v>
       </c>
       <c r="AK28">
-        <v>0.89931399999999995</v>
+        <v>0.878054</v>
       </c>
       <c r="AL28">
-        <v>0.97121100000000005</v>
+        <v>0.96561200000000003</v>
       </c>
       <c r="AM28">
         <v>7</v>
@@ -5950,25 +5971,25 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>1.1553260000000001</v>
+        <v>0.94077999999999995</v>
       </c>
       <c r="BD28">
-        <v>35998.895314000001</v>
+        <v>35999.060219999999</v>
       </c>
       <c r="BE28">
-        <v>26999.661700000001</v>
+        <v>27000.043366999998</v>
       </c>
       <c r="BF28">
-        <v>13367.9</v>
+        <v>12401</v>
       </c>
       <c r="BG28">
-        <v>-4091.9</v>
+        <v>-4290.5</v>
       </c>
       <c r="BH28">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI28">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ28">
         <v>-5.0000000000000001E-4</v>
@@ -5991,22 +6012,22 @@
         <v>63</v>
       </c>
       <c r="F29" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G29" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H29" t="s">
         <v>64</v>
       </c>
       <c r="I29">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J29" t="s">
         <v>63</v>
       </c>
       <c r="K29" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L29" t="s">
         <v>65</v>
@@ -6015,7 +6036,7 @@
         <v>44</v>
       </c>
       <c r="N29" s="1">
-        <v>5.9085648148148148E-4</v>
+        <v>5.8438657407407408E-4</v>
       </c>
       <c r="O29" t="s">
         <v>66</v>
@@ -6051,31 +6072,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD29">
-        <v>113609.883877</v>
+        <v>133659.05512</v>
       </c>
       <c r="AE29">
-        <v>113609.883877</v>
+        <v>133659.05512</v>
       </c>
       <c r="AF29">
-        <v>1287.4963869999999</v>
+        <v>1623.3595479999999</v>
       </c>
       <c r="AG29">
-        <v>0.861259</v>
+        <v>0.637351</v>
       </c>
       <c r="AH29">
         <v>1</v>
       </c>
       <c r="AI29">
-        <v>380.33221900000001</v>
+        <v>412.52877999999998</v>
       </c>
       <c r="AJ29">
-        <v>28806332.825008001</v>
+        <v>36758804.647161998</v>
       </c>
       <c r="AK29">
-        <v>0.945048</v>
+        <v>0.82312799999999997</v>
       </c>
       <c r="AL29">
-        <v>0.96433199999999997</v>
+        <v>0.94068499999999999</v>
       </c>
       <c r="AM29">
         <v>7</v>
@@ -6126,25 +6147,25 @@
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>1.1064080000000001</v>
+        <v>0.84168699999999996</v>
       </c>
       <c r="BD29">
-        <v>26998.895314000001</v>
+        <v>26999.160220000002</v>
       </c>
       <c r="BE29">
-        <v>27000.061699999998</v>
+        <v>26999.943367</v>
       </c>
       <c r="BF29">
-        <v>22367.9</v>
+        <v>21400.9</v>
       </c>
       <c r="BG29">
-        <v>-4091.5</v>
+        <v>-4290.6000000000004</v>
       </c>
       <c r="BH29">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI29">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ29">
         <v>-5.0000000000000001E-4</v>
@@ -6167,22 +6188,22 @@
         <v>63</v>
       </c>
       <c r="F30" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G30" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H30" t="s">
         <v>64</v>
       </c>
       <c r="I30">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J30" t="s">
         <v>63</v>
       </c>
       <c r="K30" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L30" t="s">
         <v>65</v>
@@ -6191,7 +6212,7 @@
         <v>45</v>
       </c>
       <c r="N30" s="1">
-        <v>6.0194444444444445E-4</v>
+        <v>5.9541666666666673E-4</v>
       </c>
       <c r="O30" t="s">
         <v>66</v>
@@ -6227,31 +6248,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD30">
-        <v>111494.173643</v>
+        <v>140156.413768</v>
       </c>
       <c r="AE30">
-        <v>111494.173643</v>
+        <v>140156.413768</v>
       </c>
       <c r="AF30">
-        <v>1251.5510939999999</v>
+        <v>1598.72739</v>
       </c>
       <c r="AG30">
-        <v>0.89446800000000004</v>
+        <v>0.68908700000000001</v>
       </c>
       <c r="AH30">
         <v>1</v>
       </c>
       <c r="AI30">
-        <v>376.77419099999997</v>
+        <v>422.43660899999998</v>
       </c>
       <c r="AJ30">
-        <v>28005418.039021</v>
+        <v>39471466.756122001</v>
       </c>
       <c r="AK30">
-        <v>0.95793099999999998</v>
+        <v>0.84889899999999996</v>
       </c>
       <c r="AL30">
-        <v>0.97475800000000001</v>
+        <v>0.95622799999999997</v>
       </c>
       <c r="AM30">
         <v>7</v>
@@ -6302,25 +6323,25 @@
         <v>0</v>
       </c>
       <c r="BC30">
-        <v>1.0176160000000001</v>
+        <v>1.4469000000000001</v>
       </c>
       <c r="BD30">
-        <v>17998.995314</v>
+        <v>17998.560219999999</v>
       </c>
       <c r="BE30">
-        <v>27000.161700000001</v>
+        <v>27000.143367000001</v>
       </c>
       <c r="BF30">
-        <v>31367.8</v>
+        <v>30401.5</v>
       </c>
       <c r="BG30">
-        <v>-4091.4</v>
+        <v>-4290.3999999999996</v>
       </c>
       <c r="BH30">
-        <v>4441.7754999999997</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI30">
-        <v>4441.7749999999996</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ30">
         <v>-5.0000000000000001E-4</v>
@@ -6343,22 +6364,22 @@
         <v>63</v>
       </c>
       <c r="F31" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G31" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H31" t="s">
         <v>64</v>
       </c>
       <c r="I31">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J31" t="s">
         <v>63</v>
       </c>
       <c r="K31" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L31" t="s">
         <v>65</v>
@@ -6367,7 +6388,7 @@
         <v>46</v>
       </c>
       <c r="N31" s="1">
-        <v>6.1304398148148145E-4</v>
+        <v>6.063773148148148E-4</v>
       </c>
       <c r="O31" t="s">
         <v>66</v>
@@ -6403,31 +6424,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD31">
-        <v>116138.72096200001</v>
+        <v>136519.64558400001</v>
       </c>
       <c r="AE31">
-        <v>116138.72096200001</v>
+        <v>136519.64558400001</v>
       </c>
       <c r="AF31">
-        <v>1354.149347</v>
+        <v>1495.7510970000001</v>
       </c>
       <c r="AG31">
-        <v>0.79589100000000002</v>
+        <v>0.76680800000000005</v>
       </c>
       <c r="AH31">
         <v>1</v>
       </c>
       <c r="AI31">
-        <v>384.54182100000003</v>
+        <v>416.91991000000002</v>
       </c>
       <c r="AJ31">
-        <v>29773463.508687001</v>
+        <v>37945172.237490997</v>
       </c>
       <c r="AK31">
-        <v>0.91764800000000002</v>
+        <v>0.89551599999999998</v>
       </c>
       <c r="AL31">
-        <v>0.94515300000000002</v>
+        <v>0.956179</v>
       </c>
       <c r="AM31">
         <v>7</v>
@@ -6478,25 +6499,25 @@
         <v>0</v>
       </c>
       <c r="BC31">
-        <v>1.4060410000000001</v>
+        <v>1.945071</v>
       </c>
       <c r="BD31">
-        <v>8998.5953140000001</v>
+        <v>8998.0602199999994</v>
       </c>
       <c r="BE31">
-        <v>27000.061699999998</v>
+        <v>27000.143367000001</v>
       </c>
       <c r="BF31">
-        <v>40368.199999999997</v>
+        <v>39402</v>
       </c>
       <c r="BG31">
-        <v>-4091.5</v>
+        <v>-4290.3999999999996</v>
       </c>
       <c r="BH31">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI31">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ31">
         <v>-5.0000000000000001E-4</v>
@@ -6519,22 +6540,22 @@
         <v>63</v>
       </c>
       <c r="F32" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G32" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H32" t="s">
         <v>64</v>
       </c>
       <c r="I32">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J32" t="s">
         <v>63</v>
       </c>
       <c r="K32" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L32" t="s">
         <v>65</v>
@@ -6543,7 +6564,7 @@
         <v>49</v>
       </c>
       <c r="N32" s="1">
-        <v>6.469560185185185E-4</v>
+        <v>6.4025462962962962E-4</v>
       </c>
       <c r="O32" t="s">
         <v>66</v>
@@ -6579,31 +6600,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD32">
-        <v>109109.305006</v>
+        <v>129202.29273299999</v>
       </c>
       <c r="AE32">
-        <v>109109.305006</v>
+        <v>129202.29273299999</v>
       </c>
       <c r="AF32">
-        <v>1249.684853</v>
+        <v>1437.6732629999999</v>
       </c>
       <c r="AG32">
-        <v>0.87795199999999995</v>
+        <v>0.785524</v>
       </c>
       <c r="AH32">
         <v>1</v>
       </c>
       <c r="AI32">
-        <v>372.72279500000002</v>
+        <v>405.592737</v>
       </c>
       <c r="AJ32">
-        <v>27111683.407026</v>
+        <v>34935674.365001999</v>
       </c>
       <c r="AK32">
-        <v>0.95087600000000005</v>
+        <v>0.90634499999999996</v>
       </c>
       <c r="AL32">
-        <v>0.97100799999999998</v>
+        <v>0.95625300000000002</v>
       </c>
       <c r="AM32">
         <v>7</v>
@@ -6654,25 +6675,25 @@
         <v>0</v>
       </c>
       <c r="BC32">
-        <v>1.7578720000000001</v>
+        <v>1.866803</v>
       </c>
       <c r="BD32">
-        <v>9001.5953140000001</v>
+        <v>9001.8602200000005</v>
       </c>
       <c r="BE32">
-        <v>35999.261700000003</v>
+        <v>35999.843367000001</v>
       </c>
       <c r="BF32">
-        <v>40365.199999999997</v>
+        <v>39398.199999999997</v>
       </c>
       <c r="BG32">
-        <v>4907.7</v>
+        <v>4709.3</v>
       </c>
       <c r="BH32">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI32">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ32">
         <v>-5.0000000000000001E-4</v>
@@ -6695,22 +6716,22 @@
         <v>63</v>
       </c>
       <c r="F33" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H33" t="s">
         <v>64</v>
       </c>
       <c r="I33">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J33" t="s">
         <v>63</v>
       </c>
       <c r="K33" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L33" t="s">
         <v>65</v>
@@ -6719,7 +6740,7 @@
         <v>50</v>
       </c>
       <c r="N33" s="1">
-        <v>6.5796296296296295E-4</v>
+        <v>6.511921296296296E-4</v>
       </c>
       <c r="O33" t="s">
         <v>66</v>
@@ -6755,31 +6776,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD33">
-        <v>116288.948907</v>
+        <v>127962.912182</v>
       </c>
       <c r="AE33">
-        <v>116288.948907</v>
+        <v>127962.912182</v>
       </c>
       <c r="AF33">
-        <v>1293.530994</v>
+        <v>1442.0800220000001</v>
       </c>
       <c r="AG33">
-        <v>0.873363</v>
+        <v>0.77324199999999998</v>
       </c>
       <c r="AH33">
         <v>1</v>
       </c>
       <c r="AI33">
-        <v>384.79044699999997</v>
+        <v>403.64271300000001</v>
       </c>
       <c r="AJ33">
-        <v>29831251.113795999</v>
+        <v>34434198.054973997</v>
       </c>
       <c r="AK33">
-        <v>0.95294699999999999</v>
+        <v>0.897393</v>
       </c>
       <c r="AL33">
-        <v>0.96173900000000001</v>
+        <v>0.96017300000000005</v>
       </c>
       <c r="AM33">
         <v>7</v>
@@ -6830,25 +6851,25 @@
         <v>0</v>
       </c>
       <c r="BC33">
-        <v>3.2131720000000001</v>
+        <v>2.6608230000000002</v>
       </c>
       <c r="BD33">
-        <v>18003.195314000001</v>
+        <v>18002.660220000002</v>
       </c>
       <c r="BE33">
-        <v>35999.661699999997</v>
+        <v>35999.943367</v>
       </c>
       <c r="BF33">
-        <v>31363.599999999999</v>
+        <v>30397.4</v>
       </c>
       <c r="BG33">
-        <v>4908.1000000000004</v>
+        <v>4709.3999999999996</v>
       </c>
       <c r="BH33">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI33">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ33">
         <v>-5.0000000000000001E-4</v>
@@ -6871,22 +6892,22 @@
         <v>63</v>
       </c>
       <c r="F34" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G34" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H34" t="s">
         <v>64</v>
       </c>
       <c r="I34">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J34" t="s">
         <v>63</v>
       </c>
       <c r="K34" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L34" t="s">
         <v>65</v>
@@ -6895,7 +6916,7 @@
         <v>51</v>
       </c>
       <c r="N34" s="1">
-        <v>6.6894675925925921E-4</v>
+        <v>6.6243055555555554E-4</v>
       </c>
       <c r="O34" t="s">
         <v>66</v>
@@ -6931,31 +6952,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD34">
-        <v>114436.13757799999</v>
+        <v>134741.94822799999</v>
       </c>
       <c r="AE34">
-        <v>114436.13757799999</v>
+        <v>134741.94822799999</v>
       </c>
       <c r="AF34">
-        <v>1318.1631520000001</v>
+        <v>1545.631846</v>
       </c>
       <c r="AG34">
-        <v>0.827627</v>
+        <v>0.708762</v>
       </c>
       <c r="AH34">
         <v>1</v>
       </c>
       <c r="AI34">
-        <v>381.71274</v>
+        <v>414.19654400000002</v>
       </c>
       <c r="AJ34">
-        <v>29121154.403151002</v>
+        <v>37206432.832119003</v>
       </c>
       <c r="AK34">
-        <v>0.921014</v>
+        <v>0.85999499999999995</v>
       </c>
       <c r="AL34">
-        <v>0.97566900000000001</v>
+        <v>0.95831599999999995</v>
       </c>
       <c r="AM34">
         <v>7</v>
@@ -7006,25 +7027,25 @@
         <v>0</v>
       </c>
       <c r="BC34">
-        <v>3.2131720000000001</v>
+        <v>3.1802800000000002</v>
       </c>
       <c r="BD34">
-        <v>27003.195314000001</v>
+        <v>27003.160220000002</v>
       </c>
       <c r="BE34">
-        <v>35999.661699999997</v>
+        <v>35999.643366999997</v>
       </c>
       <c r="BF34">
-        <v>22363.599999999999</v>
+        <v>21396.9</v>
       </c>
       <c r="BG34">
-        <v>4908.1000000000004</v>
+        <v>4709.1000000000004</v>
       </c>
       <c r="BH34">
-        <v>4441.7505000000001</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI34">
-        <v>4441.75</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ34">
         <v>-5.0000000000000001E-4</v>
@@ -7047,22 +7068,22 @@
         <v>63</v>
       </c>
       <c r="F35" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G35" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H35" t="s">
         <v>64</v>
       </c>
       <c r="I35">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J35" t="s">
         <v>63</v>
       </c>
       <c r="K35" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L35" t="s">
         <v>65</v>
@@ -7071,7 +7092,7 @@
         <v>52</v>
       </c>
       <c r="N35" s="1">
-        <v>6.8009259259259249E-4</v>
+        <v>6.7371527777777785E-4</v>
       </c>
       <c r="O35" t="s">
         <v>66</v>
@@ -7107,31 +7128,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD35">
-        <v>113972.93474500001</v>
+        <v>137001.62690999999</v>
       </c>
       <c r="AE35">
-        <v>113972.93474500001</v>
+        <v>137001.62690999999</v>
       </c>
       <c r="AF35">
-        <v>1318.0644070000001</v>
+        <v>1511.2735</v>
       </c>
       <c r="AG35">
-        <v>0.82440100000000005</v>
+        <v>0.75378800000000001</v>
       </c>
       <c r="AH35">
         <v>1</v>
       </c>
       <c r="AI35">
-        <v>380.93942800000002</v>
+        <v>417.65522800000002</v>
       </c>
       <c r="AJ35">
-        <v>28944523.020592999</v>
+        <v>38146297.105067</v>
       </c>
       <c r="AK35">
-        <v>0.91839899999999997</v>
+        <v>0.88391200000000003</v>
       </c>
       <c r="AL35">
-        <v>0.97740800000000005</v>
+        <v>0.96478699999999995</v>
       </c>
       <c r="AM35">
         <v>7</v>
@@ -7182,25 +7203,25 @@
         <v>0</v>
       </c>
       <c r="BC35">
-        <v>1.8110599999999999</v>
+        <v>2.0127039999999998</v>
       </c>
       <c r="BD35">
-        <v>36001.795314000003</v>
+        <v>36001.960220000001</v>
       </c>
       <c r="BE35">
-        <v>35999.761700000003</v>
+        <v>35999.543366999998</v>
       </c>
       <c r="BF35">
-        <v>13365</v>
+        <v>12398.1</v>
       </c>
       <c r="BG35">
-        <v>4908.2</v>
+        <v>4709</v>
       </c>
       <c r="BH35">
-        <v>4441.8005000000003</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI35">
-        <v>4441.8</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ35">
         <v>-5.0000000000000001E-4</v>
@@ -7223,22 +7244,22 @@
         <v>63</v>
       </c>
       <c r="F36" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G36" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H36" t="s">
         <v>64</v>
       </c>
       <c r="I36">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J36" t="s">
         <v>63</v>
       </c>
       <c r="K36" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L36" t="s">
         <v>65</v>
@@ -7247,7 +7268,7 @@
         <v>53</v>
       </c>
       <c r="N36" s="1">
-        <v>6.9121527777777768E-4</v>
+        <v>6.8490740740740751E-4</v>
       </c>
       <c r="O36" t="s">
         <v>66</v>
@@ -7283,31 +7304,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD36">
-        <v>112946.377117</v>
+        <v>131706.091827</v>
       </c>
       <c r="AE36">
-        <v>112946.377117</v>
+        <v>131706.091827</v>
       </c>
       <c r="AF36">
-        <v>1322.232773</v>
+        <v>1423.3428249999999</v>
       </c>
       <c r="AG36">
-        <v>0.811832</v>
+        <v>0.81695200000000001</v>
       </c>
       <c r="AH36">
         <v>1</v>
       </c>
       <c r="AI36">
-        <v>379.21998100000002</v>
+        <v>409.50385199999999</v>
       </c>
       <c r="AJ36">
-        <v>28554348.635412998</v>
+        <v>35956101.246313997</v>
       </c>
       <c r="AK36">
-        <v>0.91642900000000005</v>
+        <v>0.91803100000000004</v>
       </c>
       <c r="AL36">
-        <v>0.96664799999999995</v>
+        <v>0.96935400000000005</v>
       </c>
       <c r="AM36">
         <v>7</v>
@@ -7358,25 +7379,25 @@
         <v>0</v>
       </c>
       <c r="BC36">
-        <v>2.3993030000000002</v>
+        <v>1.915446</v>
       </c>
       <c r="BD36">
-        <v>45002.395314000001</v>
+        <v>45001.860220000002</v>
       </c>
       <c r="BE36">
-        <v>35999.861700000001</v>
+        <v>35999.543366999998</v>
       </c>
       <c r="BF36">
-        <v>4364.3999999999996</v>
+        <v>3398.2</v>
       </c>
       <c r="BG36">
-        <v>4908.3</v>
+        <v>4709</v>
       </c>
       <c r="BH36">
-        <v>4441.8005000000003</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI36">
-        <v>4441.8</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ36">
         <v>-5.0000000000000001E-4</v>
@@ -7399,22 +7420,22 @@
         <v>63</v>
       </c>
       <c r="F37" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G37" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H37" t="s">
         <v>64</v>
       </c>
       <c r="I37">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J37" t="s">
         <v>63</v>
       </c>
       <c r="K37" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L37" t="s">
         <v>65</v>
@@ -7423,7 +7444,7 @@
         <v>54</v>
       </c>
       <c r="N37" s="1">
-        <v>7.0247685185185181E-4</v>
+        <v>6.9598379629629643E-4</v>
       </c>
       <c r="O37" t="s">
         <v>66</v>
@@ -7459,31 +7480,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD37">
-        <v>107819.84847300001</v>
+        <v>134760.72672100001</v>
       </c>
       <c r="AE37">
-        <v>107819.84847300001</v>
+        <v>134760.72672100001</v>
       </c>
       <c r="AF37">
-        <v>1293.432249</v>
+        <v>1455.7361840000001</v>
       </c>
       <c r="AG37">
-        <v>0.80988099999999996</v>
+        <v>0.79911200000000004</v>
       </c>
       <c r="AH37">
         <v>1</v>
       </c>
       <c r="AI37">
-        <v>370.513825</v>
+        <v>414.22540500000002</v>
       </c>
       <c r="AJ37">
-        <v>26632496.338218</v>
+        <v>37214211.090090998</v>
       </c>
       <c r="AK37">
-        <v>0.91060600000000003</v>
+        <v>0.90971999999999997</v>
       </c>
       <c r="AL37">
-        <v>0.97669700000000004</v>
+        <v>0.965588</v>
       </c>
       <c r="AM37">
         <v>7</v>
@@ -7534,25 +7555,25 @@
         <v>0</v>
       </c>
       <c r="BC37">
-        <v>2.4956079999999998</v>
+        <v>2.8372489999999999</v>
       </c>
       <c r="BD37">
-        <v>54002.495314</v>
+        <v>54002.760219999996</v>
       </c>
       <c r="BE37">
-        <v>35999.9617</v>
+        <v>35999.343367000001</v>
       </c>
       <c r="BF37">
-        <v>-4635.7</v>
+        <v>-5602.7</v>
       </c>
       <c r="BG37">
-        <v>4908.3999999999996</v>
+        <v>4708.8</v>
       </c>
       <c r="BH37">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI37">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ37">
         <v>-5.0000000000000001E-4</v>
@@ -7575,22 +7596,22 @@
         <v>63</v>
       </c>
       <c r="F38" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G38" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H38" t="s">
         <v>64</v>
       </c>
       <c r="I38">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J38" t="s">
         <v>63</v>
       </c>
       <c r="K38" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L38" t="s">
         <v>65</v>
@@ -7599,7 +7620,7 @@
         <v>55</v>
       </c>
       <c r="N38" s="1">
-        <v>7.1369212962962966E-4</v>
+        <v>7.071296296296296E-4</v>
       </c>
       <c r="O38" t="s">
         <v>66</v>
@@ -7635,31 +7656,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD38">
-        <v>113265.61150100001</v>
+        <v>138541.46335199999</v>
       </c>
       <c r="AE38">
-        <v>113265.61150100001</v>
+        <v>138541.46335199999</v>
       </c>
       <c r="AF38">
-        <v>1302.204866</v>
+        <v>1538.1090380000001</v>
       </c>
       <c r="AG38">
-        <v>0.83936200000000005</v>
+        <v>0.73589400000000005</v>
       </c>
       <c r="AH38">
         <v>1</v>
       </c>
       <c r="AI38">
-        <v>379.75552099999999</v>
+        <v>419.99579699999998</v>
       </c>
       <c r="AJ38">
-        <v>28675494.194047999</v>
+        <v>38791221.570587002</v>
       </c>
       <c r="AK38">
-        <v>0.93213699999999999</v>
+        <v>0.87564900000000001</v>
       </c>
       <c r="AL38">
-        <v>0.96602900000000003</v>
+        <v>0.95974400000000004</v>
       </c>
       <c r="AM38">
         <v>7</v>
@@ -7710,25 +7731,25 @@
         <v>0</v>
       </c>
       <c r="BC38">
-        <v>1.3958390000000001</v>
+        <v>1.5037480000000001</v>
       </c>
       <c r="BD38">
-        <v>63001.395314000001</v>
+        <v>63001.160219999998</v>
       </c>
       <c r="BE38">
-        <v>35999.9617</v>
+        <v>35999.043366999998</v>
       </c>
       <c r="BF38">
-        <v>-13634.6</v>
+        <v>-14601.1</v>
       </c>
       <c r="BG38">
-        <v>4908.3999999999996</v>
+        <v>4708.5</v>
       </c>
       <c r="BH38">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI38">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ38">
         <v>-5.0000000000000001E-4</v>
@@ -7751,22 +7772,22 @@
         <v>63</v>
       </c>
       <c r="F39" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G39" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H39" t="s">
         <v>64</v>
       </c>
       <c r="I39">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J39" t="s">
         <v>63</v>
       </c>
       <c r="K39" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L39" t="s">
         <v>65</v>
@@ -7775,7 +7796,7 @@
         <v>56</v>
       </c>
       <c r="N39" s="1">
-        <v>7.2474537037037039E-4</v>
+        <v>7.1829861111111129E-4</v>
       </c>
       <c r="O39" t="s">
         <v>66</v>
@@ -7811,31 +7832,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD39">
-        <v>110880.74286499999</v>
+        <v>138885.735728</v>
       </c>
       <c r="AE39">
-        <v>110880.74286499999</v>
+        <v>138885.735728</v>
       </c>
       <c r="AF39">
-        <v>1308.6753570000001</v>
+        <v>1528.621243</v>
       </c>
       <c r="AG39">
-        <v>0.81358399999999997</v>
+        <v>0.74690900000000005</v>
       </c>
       <c r="AH39">
         <v>1</v>
       </c>
       <c r="AI39">
-        <v>375.73627299999998</v>
+        <v>420.517313</v>
       </c>
       <c r="AJ39">
-        <v>27774611.353144001</v>
+        <v>38935904.311742</v>
       </c>
       <c r="AK39">
-        <v>0.91567500000000002</v>
+        <v>0.87976799999999999</v>
       </c>
       <c r="AL39">
-        <v>0.97033100000000005</v>
+        <v>0.96500900000000001</v>
       </c>
       <c r="AM39">
         <v>7</v>
@@ -7886,25 +7907,25 @@
         <v>0</v>
       </c>
       <c r="BC39">
-        <v>1.910236</v>
+        <v>1.667592</v>
       </c>
       <c r="BD39">
-        <v>72001.895313999994</v>
+        <v>72001.660220000005</v>
       </c>
       <c r="BE39">
-        <v>35999.761700000003</v>
+        <v>35999.843367000001</v>
       </c>
       <c r="BF39">
-        <v>-22635.1</v>
+        <v>-23601.599999999999</v>
       </c>
       <c r="BG39">
-        <v>4908.2</v>
+        <v>4709.3</v>
       </c>
       <c r="BH39">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI39">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ39">
         <v>-5.0000000000000001E-4</v>
@@ -7927,22 +7948,22 @@
         <v>63</v>
       </c>
       <c r="F40" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G40" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H40" t="s">
         <v>64</v>
       </c>
       <c r="I40">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J40" t="s">
         <v>63</v>
       </c>
       <c r="K40" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L40" t="s">
         <v>65</v>
@@ -7951,7 +7972,7 @@
         <v>57</v>
       </c>
       <c r="N40" s="1">
-        <v>7.3593750000000005E-4</v>
+        <v>7.293518518518518E-4</v>
       </c>
       <c r="O40" t="s">
         <v>66</v>
@@ -7987,31 +8008,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD40">
-        <v>111243.793733</v>
+        <v>135236.44854899999</v>
       </c>
       <c r="AE40">
-        <v>111243.793733</v>
+        <v>135236.44854899999</v>
       </c>
       <c r="AF40">
-        <v>1285.194262</v>
+        <v>1534.5162029999999</v>
       </c>
       <c r="AG40">
-        <v>0.84634600000000004</v>
+        <v>0.72170699999999999</v>
       </c>
       <c r="AH40">
         <v>1</v>
       </c>
       <c r="AI40">
-        <v>376.35089599999998</v>
+        <v>414.955894</v>
       </c>
       <c r="AJ40">
-        <v>27911134.333535999</v>
+        <v>37411440.962802999</v>
       </c>
       <c r="AK40">
-        <v>0.93098499999999995</v>
+        <v>0.87502100000000005</v>
       </c>
       <c r="AL40">
-        <v>0.97647899999999999</v>
+        <v>0.94259199999999999</v>
       </c>
       <c r="AM40">
         <v>7</v>
@@ -8062,25 +8083,25 @@
         <v>0</v>
       </c>
       <c r="BC40">
-        <v>1.2062010000000001</v>
+        <v>1.090838</v>
       </c>
       <c r="BD40">
-        <v>81001.195313999997</v>
+        <v>81001.060219999999</v>
       </c>
       <c r="BE40">
-        <v>36000.161699999997</v>
+        <v>35999.743367000003</v>
       </c>
       <c r="BF40">
-        <v>-31634.400000000001</v>
+        <v>-32601</v>
       </c>
       <c r="BG40">
-        <v>4908.6000000000004</v>
+        <v>4709.2</v>
       </c>
       <c r="BH40">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI40">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ40">
         <v>-5.0000000000000001E-4</v>
@@ -8103,22 +8124,22 @@
         <v>63</v>
       </c>
       <c r="F41" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G41" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H41" t="s">
         <v>64</v>
       </c>
       <c r="I41">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J41" t="s">
         <v>63</v>
       </c>
       <c r="K41" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L41" t="s">
         <v>65</v>
@@ -8127,7 +8148,7 @@
         <v>58</v>
       </c>
       <c r="N41" s="1">
-        <v>7.4711805555555556E-4</v>
+        <v>7.4045138888888891E-4</v>
       </c>
       <c r="O41" t="s">
         <v>66</v>
@@ -8163,31 +8184,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD41">
-        <v>111788.37003599999</v>
+        <v>132751.427948</v>
       </c>
       <c r="AE41">
-        <v>111788.37003599999</v>
+        <v>132751.427948</v>
       </c>
       <c r="AF41">
-        <v>1276.758783</v>
+        <v>1478.7404939999999</v>
       </c>
       <c r="AG41">
-        <v>0.861765</v>
+        <v>0.76289600000000002</v>
       </c>
       <c r="AH41">
         <v>1</v>
       </c>
       <c r="AI41">
-        <v>377.27095500000001</v>
+        <v>411.12573200000003</v>
       </c>
       <c r="AJ41">
-        <v>28116336.736271001</v>
+        <v>36385018.677941002</v>
       </c>
       <c r="AK41">
-        <v>0.94498800000000005</v>
+        <v>0.89518600000000004</v>
       </c>
       <c r="AL41">
-        <v>0.96501999999999999</v>
+        <v>0.95200300000000004</v>
       </c>
       <c r="AM41">
         <v>7</v>
@@ -8238,25 +8259,25 @@
         <v>0</v>
       </c>
       <c r="BC41">
-        <v>0.30169000000000001</v>
+        <v>0.29223100000000002</v>
       </c>
       <c r="BD41">
-        <v>90000.295314000003</v>
+        <v>89999.860220000002</v>
       </c>
       <c r="BE41">
-        <v>36000.061699999998</v>
+        <v>35999.743367000003</v>
       </c>
       <c r="BF41">
-        <v>-40633.5</v>
+        <v>-41599.800000000003</v>
       </c>
       <c r="BG41">
-        <v>4908.5</v>
+        <v>4709.2</v>
       </c>
       <c r="BH41">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI41">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ41">
         <v>-5.0000000000000001E-4</v>
@@ -8279,22 +8300,22 @@
         <v>63</v>
       </c>
       <c r="F42" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G42" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H42" t="s">
         <v>64</v>
       </c>
       <c r="I42">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J42" t="s">
         <v>63</v>
       </c>
       <c r="K42" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L42" t="s">
         <v>65</v>
@@ -8303,7 +8324,7 @@
         <v>61</v>
       </c>
       <c r="N42" s="1">
-        <v>7.8068287037037038E-4</v>
+        <v>7.7391203703703704E-4</v>
       </c>
       <c r="O42" t="s">
         <v>66</v>
@@ -8339,31 +8360,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD42">
-        <v>114123.162691</v>
+        <v>135436.75247599999</v>
       </c>
       <c r="AE42">
-        <v>114123.162691</v>
+        <v>135436.75247599999</v>
       </c>
       <c r="AF42">
-        <v>1261.03889</v>
+        <v>1545.393454</v>
       </c>
       <c r="AG42">
-        <v>0.90183400000000002</v>
+        <v>0.71263699999999996</v>
       </c>
       <c r="AH42">
         <v>1</v>
       </c>
       <c r="AI42">
-        <v>381.190403</v>
+        <v>415.26308399999999</v>
       </c>
       <c r="AJ42">
-        <v>29001769.622078001</v>
+        <v>37494589.027626999</v>
       </c>
       <c r="AK42">
-        <v>0.96516800000000003</v>
+        <v>0.87136599999999997</v>
       </c>
       <c r="AL42">
-        <v>0.96810099999999999</v>
+        <v>0.93857100000000004</v>
       </c>
       <c r="AM42">
         <v>7</v>
@@ -8414,25 +8435,25 @@
         <v>0</v>
       </c>
       <c r="BC42">
-        <v>4.9972279999999998</v>
+        <v>5.9861560000000003</v>
       </c>
       <c r="BD42">
-        <v>90004.995314</v>
+        <v>90005.960219999994</v>
       </c>
       <c r="BE42">
-        <v>44999.861700000001</v>
+        <v>44999.443367</v>
       </c>
       <c r="BF42">
-        <v>-40638.199999999997</v>
+        <v>-41605.9</v>
       </c>
       <c r="BG42">
-        <v>13908.3</v>
+        <v>13708.9</v>
       </c>
       <c r="BH42">
-        <v>4441.8504999999996</v>
+        <v>4399.9004999999997</v>
       </c>
       <c r="BI42">
-        <v>4441.8500000000004</v>
+        <v>4399.8999999999996</v>
       </c>
       <c r="BJ42">
         <v>-5.0000000000000001E-4</v>
@@ -8455,22 +8476,22 @@
         <v>63</v>
       </c>
       <c r="F43" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G43" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H43" t="s">
         <v>64</v>
       </c>
       <c r="I43">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J43" t="s">
         <v>63</v>
       </c>
       <c r="K43" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L43" t="s">
         <v>65</v>
@@ -8479,7 +8500,7 @@
         <v>62</v>
       </c>
       <c r="N43" s="1">
-        <v>7.9199074074074078E-4</v>
+        <v>7.850810185185184E-4</v>
       </c>
       <c r="O43" t="s">
         <v>66</v>
@@ -8515,31 +8536,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD43">
-        <v>114655.219998</v>
+        <v>128914.355837</v>
       </c>
       <c r="AE43">
-        <v>114655.219998</v>
+        <v>128914.355837</v>
       </c>
       <c r="AF43">
-        <v>1265.881533</v>
+        <v>1523.638952</v>
       </c>
       <c r="AG43">
-        <v>0.89912000000000003</v>
+        <v>0.69782599999999995</v>
       </c>
       <c r="AH43">
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>382.07794999999999</v>
+        <v>405.14053799999999</v>
       </c>
       <c r="AJ43">
-        <v>29204820.966173001</v>
+        <v>34818954.341596</v>
       </c>
       <c r="AK43">
-        <v>0.95804400000000001</v>
+        <v>0.85412699999999997</v>
       </c>
       <c r="AL43">
-        <v>0.97959600000000002</v>
+        <v>0.95653699999999997</v>
       </c>
       <c r="AM43">
         <v>7</v>
@@ -8590,25 +8611,25 @@
         <v>0</v>
       </c>
       <c r="BC43">
-        <v>0.70893399999999995</v>
+        <v>0.89768499999999996</v>
       </c>
       <c r="BD43">
-        <v>81000.695313999997</v>
+        <v>81000.860220000002</v>
       </c>
       <c r="BE43">
-        <v>44999.861700000001</v>
+        <v>44999.743367000003</v>
       </c>
       <c r="BF43">
-        <v>-31633.9</v>
+        <v>-32600.799999999999</v>
       </c>
       <c r="BG43">
-        <v>13908.3</v>
+        <v>13709.2</v>
       </c>
       <c r="BH43">
-        <v>4441.8254999999999</v>
+        <v>4399.9004999999997</v>
       </c>
       <c r="BI43">
-        <v>4441.8249999999998</v>
+        <v>4399.8999999999996</v>
       </c>
       <c r="BJ43">
         <v>-5.0000000000000001E-4</v>
@@ -8631,22 +8652,22 @@
         <v>63</v>
       </c>
       <c r="F44" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G44" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H44" t="s">
         <v>64</v>
       </c>
       <c r="I44">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J44" t="s">
         <v>63</v>
       </c>
       <c r="K44" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L44" t="s">
         <v>65</v>
@@ -8655,7 +8676,7 @@
         <v>63</v>
       </c>
       <c r="N44" s="1">
-        <v>8.0309027777777768E-4</v>
+        <v>7.9629629629629636E-4</v>
       </c>
       <c r="O44" t="s">
         <v>66</v>
@@ -8691,31 +8712,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD44">
-        <v>120582.964353</v>
+        <v>129890.837484</v>
       </c>
       <c r="AE44">
-        <v>120582.964353</v>
+        <v>129890.837484</v>
       </c>
       <c r="AF44">
-        <v>1421.9533690000001</v>
+        <v>1571.077929</v>
       </c>
       <c r="AG44">
-        <v>0.74941999999999998</v>
+        <v>0.66129099999999996</v>
       </c>
       <c r="AH44">
         <v>1</v>
       </c>
       <c r="AI44">
-        <v>391.83031899999997</v>
+        <v>406.67204299999997</v>
       </c>
       <c r="AJ44">
-        <v>31498707.566353001</v>
+        <v>35215314.854957998</v>
       </c>
       <c r="AK44">
-        <v>0.88833300000000004</v>
+        <v>0.829847</v>
       </c>
       <c r="AL44">
-        <v>0.94967100000000004</v>
+        <v>0.96027700000000005</v>
       </c>
       <c r="AM44">
         <v>7</v>
@@ -8766,25 +8787,25 @@
         <v>0</v>
       </c>
       <c r="BC44">
-        <v>0.23932100000000001</v>
+        <v>0.42580600000000002</v>
       </c>
       <c r="BD44">
-        <v>72000.195313999997</v>
+        <v>71999.660220000005</v>
       </c>
       <c r="BE44">
-        <v>44999.861700000001</v>
+        <v>44999.743367000003</v>
       </c>
       <c r="BF44">
-        <v>-22633.4</v>
+        <v>-23599.599999999999</v>
       </c>
       <c r="BG44">
-        <v>13908.3</v>
+        <v>13709.2</v>
       </c>
       <c r="BH44">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI44">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ44">
         <v>-5.0000000000000001E-4</v>
@@ -8807,22 +8828,22 @@
         <v>63</v>
       </c>
       <c r="F45" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G45" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H45" t="s">
         <v>64</v>
       </c>
       <c r="I45">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J45" t="s">
         <v>63</v>
       </c>
       <c r="K45" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L45" t="s">
         <v>65</v>
@@ -8831,7 +8852,7 @@
         <v>64</v>
       </c>
       <c r="N45" s="1">
-        <v>8.1418981481481479E-4</v>
+        <v>8.0778935185185175E-4</v>
       </c>
       <c r="O45" t="s">
         <v>66</v>
@@ -8867,31 +8888,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD45">
-        <v>111850.965014</v>
+        <v>131430.67392599999</v>
       </c>
       <c r="AE45">
-        <v>111850.965014</v>
+        <v>131430.67392599999</v>
       </c>
       <c r="AF45">
-        <v>1360.7594859999999</v>
+        <v>1472.7467879999999</v>
       </c>
       <c r="AG45">
-        <v>0.75907899999999995</v>
+        <v>0.76146599999999998</v>
       </c>
       <c r="AH45">
         <v>1</v>
       </c>
       <c r="AI45">
-        <v>377.37656500000003</v>
+        <v>409.07545900000002</v>
       </c>
       <c r="AJ45">
-        <v>28139955.308626998</v>
+        <v>35843375.538508996</v>
       </c>
       <c r="AK45">
-        <v>0.88776100000000002</v>
+        <v>0.88863199999999998</v>
       </c>
       <c r="AL45">
-        <v>0.96315200000000001</v>
+        <v>0.96428800000000003</v>
       </c>
       <c r="AM45">
         <v>7</v>
@@ -8942,25 +8963,25 @@
         <v>0</v>
       </c>
       <c r="BC45">
-        <v>0.91519600000000001</v>
+        <v>0.75354399999999999</v>
       </c>
       <c r="BD45">
-        <v>62999.095313999998</v>
+        <v>62999.260219999996</v>
       </c>
       <c r="BE45">
-        <v>44999.861700000001</v>
+        <v>45000.143366999997</v>
       </c>
       <c r="BF45">
-        <v>-13632.3</v>
+        <v>-14599.2</v>
       </c>
       <c r="BG45">
-        <v>13908.3</v>
+        <v>13709.6</v>
       </c>
       <c r="BH45">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI45">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ45">
         <v>-5.0000000000000001E-4</v>
@@ -8983,22 +9004,22 @@
         <v>63</v>
       </c>
       <c r="F46" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G46" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H46" t="s">
         <v>64</v>
       </c>
       <c r="I46">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J46" t="s">
         <v>63</v>
       </c>
       <c r="K46" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L46" t="s">
         <v>65</v>
@@ -9007,7 +9028,7 @@
         <v>65</v>
       </c>
       <c r="N46" s="1">
-        <v>8.2517361111111116E-4</v>
+        <v>8.1893518518518513E-4</v>
       </c>
       <c r="O46" t="s">
         <v>66</v>
@@ -9043,31 +9064,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD46">
-        <v>114548.808537</v>
+        <v>133946.992015</v>
       </c>
       <c r="AE46">
-        <v>114548.808537</v>
+        <v>133946.992015</v>
       </c>
       <c r="AF46">
-        <v>1408.1984620000001</v>
+        <v>1528.621243</v>
       </c>
       <c r="AG46">
-        <v>0.72589300000000001</v>
+        <v>0.72034900000000002</v>
       </c>
       <c r="AH46">
         <v>1</v>
       </c>
       <c r="AI46">
-        <v>381.90060599999998</v>
+        <v>412.97288900000001</v>
       </c>
       <c r="AJ46">
-        <v>29164172.928086001</v>
+        <v>36877650.852684997</v>
       </c>
       <c r="AK46">
-        <v>0.86905399999999999</v>
+        <v>0.86304000000000003</v>
       </c>
       <c r="AL46">
-        <v>0.96112399999999998</v>
+        <v>0.96712200000000004</v>
       </c>
       <c r="AM46">
         <v>7</v>
@@ -9118,25 +9139,25 @@
         <v>0</v>
       </c>
       <c r="BC46">
-        <v>0.20482800000000001</v>
+        <v>7.4209999999999998E-2</v>
       </c>
       <c r="BD46">
-        <v>54000.195313999997</v>
+        <v>54000.060219999999</v>
       </c>
       <c r="BE46">
-        <v>45000.061699999998</v>
+        <v>45000.043366999998</v>
       </c>
       <c r="BF46">
-        <v>-4633.3999999999996</v>
+        <v>-5600</v>
       </c>
       <c r="BG46">
-        <v>13908.5</v>
+        <v>13709.5</v>
       </c>
       <c r="BH46">
-        <v>4441.8254999999999</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI46">
-        <v>4441.8249999999998</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ46">
         <v>-5.0000000000000001E-4</v>
@@ -9159,22 +9180,22 @@
         <v>63</v>
       </c>
       <c r="F47" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G47" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H47" t="s">
         <v>64</v>
       </c>
       <c r="I47">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J47" t="s">
         <v>63</v>
       </c>
       <c r="K47" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L47" t="s">
         <v>65</v>
@@ -9183,7 +9204,7 @@
         <v>66</v>
       </c>
       <c r="N47" s="1">
-        <v>8.3636574074074071E-4</v>
+        <v>8.3008101851851852E-4</v>
       </c>
       <c r="O47" t="s">
         <v>66</v>
@@ -9219,31 +9240,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD47">
-        <v>109816.62824999999</v>
+        <v>136018.88576599999</v>
       </c>
       <c r="AE47">
-        <v>109816.62824999999</v>
+        <v>136018.88576599999</v>
       </c>
       <c r="AF47">
-        <v>1284.281592</v>
+        <v>1495.6523520000001</v>
       </c>
       <c r="AG47">
-        <v>0.83667599999999998</v>
+        <v>0.764096</v>
       </c>
       <c r="AH47">
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>373.928969</v>
+        <v>416.15456799999998</v>
       </c>
       <c r="AJ47">
-        <v>27375745.710558999</v>
+        <v>37736587.066582002</v>
       </c>
       <c r="AK47">
-        <v>0.92639899999999997</v>
+        <v>0.891432</v>
       </c>
       <c r="AL47">
-        <v>0.97490200000000005</v>
+        <v>0.96154799999999996</v>
       </c>
       <c r="AM47">
         <v>7</v>
@@ -9294,25 +9315,25 @@
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>1.3146679999999999</v>
+        <v>1.640353</v>
       </c>
       <c r="BD47">
-        <v>44998.695313999997</v>
+        <v>44998.360220000002</v>
       </c>
       <c r="BE47">
-        <v>45000.161699999997</v>
+        <v>45000.043366999998</v>
       </c>
       <c r="BF47">
-        <v>4368.1000000000004</v>
+        <v>3401.7</v>
       </c>
       <c r="BG47">
-        <v>13908.6</v>
+        <v>13709.5</v>
       </c>
       <c r="BH47">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI47">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ47">
         <v>-5.0000000000000001E-4</v>
@@ -9335,22 +9356,22 @@
         <v>63</v>
       </c>
       <c r="F48" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G48" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
       </c>
       <c r="I48">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J48" t="s">
         <v>63</v>
       </c>
       <c r="K48" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L48" t="s">
         <v>65</v>
@@ -9359,7 +9380,7 @@
         <v>67</v>
       </c>
       <c r="N48" s="1">
-        <v>8.4741898148148155E-4</v>
+        <v>8.4122685185185179E-4</v>
       </c>
       <c r="O48" t="s">
         <v>66</v>
@@ -9395,31 +9416,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD48">
-        <v>114398.58059100001</v>
+        <v>129684.274058</v>
       </c>
       <c r="AE48">
-        <v>114398.58059100001</v>
+        <v>129684.274058</v>
       </c>
       <c r="AF48">
-        <v>1263.6781530000001</v>
+        <v>1452.0446030000001</v>
       </c>
       <c r="AG48">
-        <v>0.90023799999999998</v>
+        <v>0.77292499999999997</v>
       </c>
       <c r="AH48">
         <v>1</v>
       </c>
       <c r="AI48">
-        <v>381.65009700000002</v>
+        <v>406.34855199999998</v>
       </c>
       <c r="AJ48">
-        <v>29106819.599273998</v>
+        <v>35131344.691009998</v>
       </c>
       <c r="AK48">
-        <v>0.95767999999999998</v>
+        <v>0.89402400000000004</v>
       </c>
       <c r="AL48">
-        <v>0.98155899999999996</v>
+        <v>0.96702699999999997</v>
       </c>
       <c r="AM48">
         <v>7</v>
@@ -9470,25 +9491,25 @@
         <v>0</v>
       </c>
       <c r="BC48">
-        <v>1.2062649999999999</v>
+        <v>0.84168699999999996</v>
       </c>
       <c r="BD48">
-        <v>35998.795314000003</v>
+        <v>35999.160219999998</v>
       </c>
       <c r="BE48">
-        <v>45000.061699999998</v>
+        <v>44999.943367</v>
       </c>
       <c r="BF48">
-        <v>13368</v>
+        <v>12400.9</v>
       </c>
       <c r="BG48">
-        <v>13908.5</v>
+        <v>13709.4</v>
       </c>
       <c r="BH48">
-        <v>4441.7505000000001</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI48">
-        <v>4441.75</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ48">
         <v>-5.0000000000000001E-4</v>
@@ -9511,22 +9532,22 @@
         <v>63</v>
       </c>
       <c r="F49" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G49" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H49" t="s">
         <v>64</v>
       </c>
       <c r="I49">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J49" t="s">
         <v>63</v>
       </c>
       <c r="K49" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L49" t="s">
         <v>65</v>
@@ -9535,7 +9556,7 @@
         <v>68</v>
       </c>
       <c r="N49" s="1">
-        <v>8.5854166666666663E-4</v>
+        <v>8.5225694444444444E-4</v>
       </c>
       <c r="O49" t="s">
         <v>66</v>
@@ -9571,31 +9592,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD49">
-        <v>113828.966298</v>
+        <v>136457.05060700001</v>
       </c>
       <c r="AE49">
-        <v>113828.966298</v>
+        <v>136457.05060700001</v>
       </c>
       <c r="AF49">
-        <v>1318.977077</v>
+        <v>1537.5335070000001</v>
       </c>
       <c r="AG49">
-        <v>0.82221999999999995</v>
+        <v>0.72536500000000004</v>
       </c>
       <c r="AH49">
         <v>1</v>
       </c>
       <c r="AI49">
-        <v>380.69875400000001</v>
+        <v>416.824319</v>
       </c>
       <c r="AJ49">
-        <v>28889697.085342001</v>
+        <v>37919078.136811003</v>
       </c>
       <c r="AK49">
-        <v>0.92138699999999996</v>
+        <v>0.86885599999999996</v>
       </c>
       <c r="AL49">
-        <v>0.96850899999999995</v>
+        <v>0.96086300000000002</v>
       </c>
       <c r="AM49">
         <v>7</v>
@@ -9646,25 +9667,25 @@
         <v>0</v>
       </c>
       <c r="BC49">
-        <v>0.905497</v>
+        <v>0.85192999999999997</v>
       </c>
       <c r="BD49">
-        <v>26999.095313999998</v>
+        <v>26999.160220000002</v>
       </c>
       <c r="BE49">
-        <v>44999.9617</v>
+        <v>45000.143366999997</v>
       </c>
       <c r="BF49">
-        <v>22367.7</v>
+        <v>21400.9</v>
       </c>
       <c r="BG49">
-        <v>13908.4</v>
+        <v>13709.6</v>
       </c>
       <c r="BH49">
-        <v>4441.7505000000001</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI49">
-        <v>4441.75</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ49">
         <v>-5.0000000000000001E-4</v>
@@ -9687,22 +9708,22 @@
         <v>63</v>
       </c>
       <c r="F50" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G50" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H50" t="s">
         <v>64</v>
       </c>
       <c r="I50">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J50" t="s">
         <v>63</v>
       </c>
       <c r="K50" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L50" t="s">
         <v>65</v>
@@ -9711,7 +9732,7 @@
         <v>69</v>
       </c>
       <c r="N50" s="1">
-        <v>8.6964120370370374E-4</v>
+        <v>8.6347222222222218E-4</v>
       </c>
       <c r="O50" t="s">
         <v>66</v>
@@ -9747,31 +9768,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD50">
-        <v>113034.010085</v>
+        <v>130573.122737</v>
       </c>
       <c r="AE50">
-        <v>113034.010085</v>
+        <v>130573.122737</v>
       </c>
       <c r="AF50">
-        <v>1265.2072559999999</v>
+        <v>1456.8872469999999</v>
       </c>
       <c r="AG50">
-        <v>0.887351</v>
+        <v>0.77305699999999999</v>
       </c>
       <c r="AH50">
         <v>1</v>
       </c>
       <c r="AI50">
-        <v>379.36706700000002</v>
+        <v>407.738719</v>
       </c>
       <c r="AJ50">
-        <v>28587587.253176</v>
+        <v>35493145.240489997</v>
       </c>
       <c r="AK50">
-        <v>0.95635099999999995</v>
+        <v>0.90012599999999998</v>
       </c>
       <c r="AL50">
-        <v>0.97019999999999995</v>
+        <v>0.954125</v>
       </c>
       <c r="AM50">
         <v>7</v>
@@ -9822,25 +9843,25 @@
         <v>0</v>
       </c>
       <c r="BC50">
-        <v>1.228861</v>
+        <v>1.222977</v>
       </c>
       <c r="BD50">
-        <v>17998.895314000001</v>
+        <v>17998.860219999999</v>
       </c>
       <c r="BE50">
-        <v>44999.4617</v>
+        <v>45000.443367</v>
       </c>
       <c r="BF50">
-        <v>31367.9</v>
+        <v>30401.200000000001</v>
       </c>
       <c r="BG50">
-        <v>13907.9</v>
+        <v>13709.9</v>
       </c>
       <c r="BH50">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI50">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ50">
         <v>-5.0000000000000001E-4</v>
@@ -9863,22 +9884,22 @@
         <v>63</v>
       </c>
       <c r="F51" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G51" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H51" t="s">
         <v>64</v>
       </c>
       <c r="I51">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J51" t="s">
         <v>63</v>
       </c>
       <c r="K51" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L51" t="s">
         <v>65</v>
@@ -9887,7 +9908,7 @@
         <v>70</v>
       </c>
       <c r="N51" s="1">
-        <v>8.808101851851851E-4</v>
+        <v>8.7471064814814801E-4</v>
       </c>
       <c r="O51" t="s">
         <v>66</v>
@@ -9923,31 +9944,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD51">
-        <v>111782.11053799999</v>
+        <v>135486.828458</v>
       </c>
       <c r="AE51">
-        <v>111782.11053799999</v>
+        <v>135486.828458</v>
       </c>
       <c r="AF51">
-        <v>1297.699361</v>
+        <v>1455.497791</v>
       </c>
       <c r="AG51">
-        <v>0.83413000000000004</v>
+        <v>0.80368099999999998</v>
       </c>
       <c r="AH51">
         <v>1</v>
       </c>
       <c r="AI51">
-        <v>377.26039200000002</v>
+        <v>415.33984600000002</v>
       </c>
       <c r="AJ51">
-        <v>28113975.242642</v>
+        <v>37515385.656327002</v>
       </c>
       <c r="AK51">
-        <v>0.93272699999999997</v>
+        <v>0.91398400000000002</v>
       </c>
       <c r="AL51">
-        <v>0.95879400000000004</v>
+        <v>0.96206999999999998</v>
       </c>
       <c r="AM51">
         <v>7</v>
@@ -9998,25 +10019,25 @@
         <v>0</v>
       </c>
       <c r="BC51">
-        <v>1.8576980000000001</v>
+        <v>1.7403200000000001</v>
       </c>
       <c r="BD51">
-        <v>8998.2953140000009</v>
+        <v>8998.2602200000001</v>
       </c>
       <c r="BE51">
-        <v>44999.261700000003</v>
+        <v>45000.043366999998</v>
       </c>
       <c r="BF51">
-        <v>40368.5</v>
+        <v>39401.800000000003</v>
       </c>
       <c r="BG51">
-        <v>13907.7</v>
+        <v>13709.5</v>
       </c>
       <c r="BH51">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI51">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ51">
         <v>-5.0000000000000001E-4</v>
@@ -10039,22 +10060,22 @@
         <v>63</v>
       </c>
       <c r="F52" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G52" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H52" t="s">
         <v>64</v>
       </c>
       <c r="I52">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J52" t="s">
         <v>63</v>
       </c>
       <c r="K52" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L52" t="s">
         <v>65</v>
@@ -10063,7 +10084,7 @@
         <v>73</v>
       </c>
       <c r="N52" s="1">
-        <v>9.1422453703703707E-4</v>
+        <v>9.0844907407407411E-4</v>
       </c>
       <c r="O52" t="s">
         <v>66</v>
@@ -10099,31 +10120,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD52">
-        <v>113184.238031</v>
+        <v>136237.96818600001</v>
       </c>
       <c r="AE52">
-        <v>113184.238031</v>
+        <v>136237.96818600001</v>
       </c>
       <c r="AF52">
-        <v>1418.9360650000001</v>
+        <v>1483.484391</v>
       </c>
       <c r="AG52">
-        <v>0.70643199999999995</v>
+        <v>0.77793299999999999</v>
       </c>
       <c r="AH52">
         <v>1</v>
       </c>
       <c r="AI52">
-        <v>379.61908199999999</v>
+        <v>416.48957799999999</v>
       </c>
       <c r="AJ52">
-        <v>28644597.720261</v>
+        <v>37827795.919010997</v>
       </c>
       <c r="AK52">
-        <v>0.88509300000000002</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="AL52">
-        <v>0.90176299999999998</v>
+        <v>0.95721800000000001</v>
       </c>
       <c r="AM52">
         <v>7</v>
@@ -10174,25 +10195,25 @@
         <v>0</v>
       </c>
       <c r="BC52">
-        <v>1.7787230000000001</v>
+        <v>1.2860849999999999</v>
       </c>
       <c r="BD52">
-        <v>9001.6953140000005</v>
+        <v>9001.2602200000001</v>
       </c>
       <c r="BE52">
-        <v>53999.4617</v>
+        <v>53999.743367000003</v>
       </c>
       <c r="BF52">
-        <v>40365.1</v>
+        <v>39398.800000000003</v>
       </c>
       <c r="BG52">
-        <v>22907.9</v>
+        <v>22709.200000000001</v>
       </c>
       <c r="BH52">
-        <v>4441.7505000000001</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI52">
-        <v>4441.75</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ52">
         <v>-5.0000000000000001E-4</v>
@@ -10215,22 +10236,22 @@
         <v>63</v>
       </c>
       <c r="F53" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G53" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H53" t="s">
         <v>64</v>
       </c>
       <c r="I53">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J53" t="s">
         <v>63</v>
       </c>
       <c r="K53" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L53" t="s">
         <v>65</v>
@@ -10239,7 +10260,7 @@
         <v>74</v>
       </c>
       <c r="N53" s="1">
-        <v>9.2543981481481481E-4</v>
+        <v>9.199421296296296E-4</v>
       </c>
       <c r="O53" t="s">
         <v>66</v>
@@ -10275,31 +10296,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD53">
-        <v>109384.722906</v>
+        <v>127080.323001</v>
       </c>
       <c r="AE53">
-        <v>109384.722906</v>
+        <v>127080.323001</v>
       </c>
       <c r="AF53">
-        <v>1248.53379</v>
+        <v>1403.55331</v>
       </c>
       <c r="AG53">
-        <v>0.88179200000000002</v>
+        <v>0.81064400000000003</v>
       </c>
       <c r="AH53">
         <v>1</v>
       </c>
       <c r="AI53">
-        <v>373.19291900000002</v>
+        <v>402.24829699999998</v>
       </c>
       <c r="AJ53">
-        <v>27214402.690490998</v>
+        <v>34078562.356761001</v>
       </c>
       <c r="AK53">
-        <v>0.95446600000000004</v>
+        <v>0.92197200000000001</v>
       </c>
       <c r="AL53">
-        <v>0.96793200000000001</v>
+        <v>0.95366300000000004</v>
       </c>
       <c r="AM53">
         <v>7</v>
@@ -10350,25 +10371,25 @@
         <v>0</v>
       </c>
       <c r="BC53">
-        <v>3.0047779999999999</v>
+        <v>2.7646609999999998</v>
       </c>
       <c r="BD53">
-        <v>18002.995314</v>
+        <v>18002.76022</v>
       </c>
       <c r="BE53">
-        <v>53999.761700000003</v>
+        <v>53999.843367000001</v>
       </c>
       <c r="BF53">
-        <v>31363.8</v>
+        <v>30397.3</v>
       </c>
       <c r="BG53">
-        <v>22908.2</v>
+        <v>22709.3</v>
       </c>
       <c r="BH53">
-        <v>4441.8005000000003</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI53">
-        <v>4441.8</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ53">
         <v>-5.0000000000000001E-4</v>
@@ -10391,22 +10412,22 @@
         <v>63</v>
       </c>
       <c r="F54" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G54" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H54" t="s">
         <v>64</v>
       </c>
       <c r="I54">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J54" t="s">
         <v>63</v>
       </c>
       <c r="K54" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L54" t="s">
         <v>65</v>
@@ -10415,7 +10436,7 @@
         <v>75</v>
       </c>
       <c r="N54" s="1">
-        <v>9.3646990740740756E-4</v>
+        <v>9.3092592592592587E-4</v>
       </c>
       <c r="O54" t="s">
         <v>66</v>
@@ -10451,31 +10472,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD54">
-        <v>105447.498831</v>
+        <v>132970.510369</v>
       </c>
       <c r="AE54">
-        <v>105447.498831</v>
+        <v>132970.510369</v>
       </c>
       <c r="AF54">
-        <v>1228.1687440000001</v>
+        <v>1481.757797</v>
       </c>
       <c r="AG54">
-        <v>0.87847600000000003</v>
+        <v>0.761046</v>
       </c>
       <c r="AH54">
         <v>1</v>
       </c>
       <c r="AI54">
-        <v>366.414963</v>
+        <v>411.46483699999999</v>
       </c>
       <c r="AJ54">
-        <v>25758360.950153001</v>
+        <v>36475126.249619</v>
       </c>
       <c r="AK54">
-        <v>0.95077400000000001</v>
+        <v>0.89055799999999996</v>
       </c>
       <c r="AL54">
-        <v>0.97179800000000005</v>
+        <v>0.95959099999999997</v>
       </c>
       <c r="AM54">
         <v>7</v>
@@ -10526,25 +10547,25 @@
         <v>0</v>
       </c>
       <c r="BC54">
-        <v>3.104473</v>
+        <v>2.7831640000000002</v>
       </c>
       <c r="BD54">
-        <v>27003.095313999998</v>
+        <v>27002.76022</v>
       </c>
       <c r="BE54">
-        <v>53999.761700000003</v>
+        <v>53999.643366999997</v>
       </c>
       <c r="BF54">
-        <v>22363.7</v>
+        <v>21397.3</v>
       </c>
       <c r="BG54">
-        <v>22908.2</v>
+        <v>22709.1</v>
       </c>
       <c r="BH54">
-        <v>4441.7754999999997</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI54">
-        <v>4441.7749999999996</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ54">
         <v>-5.0000000000000001E-4</v>
@@ -10567,22 +10588,22 @@
         <v>63</v>
       </c>
       <c r="F55" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G55" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H55" t="s">
         <v>64</v>
       </c>
       <c r="I55">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J55" t="s">
         <v>63</v>
       </c>
       <c r="K55" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L55" t="s">
         <v>65</v>
@@ -10591,7 +10612,7 @@
         <v>76</v>
       </c>
       <c r="N55" s="1">
-        <v>9.476851851851852E-4</v>
+        <v>9.4206018518518521E-4</v>
       </c>
       <c r="O55" t="s">
         <v>66</v>
@@ -10627,31 +10648,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD55">
-        <v>109171.899983</v>
+        <v>128044.28565200001</v>
       </c>
       <c r="AE55">
-        <v>109171.899983</v>
+        <v>128044.28565200001</v>
       </c>
       <c r="AF55">
-        <v>1270.387037</v>
+        <v>1527.2317869999999</v>
       </c>
       <c r="AG55">
-        <v>0.85005799999999998</v>
+        <v>0.689859</v>
       </c>
       <c r="AH55">
         <v>1</v>
       </c>
       <c r="AI55">
-        <v>372.82969300000002</v>
+        <v>403.77103399999999</v>
       </c>
       <c r="AJ55">
-        <v>27135017.327739999</v>
+        <v>34467049.084648997</v>
       </c>
       <c r="AK55">
-        <v>0.93497699999999995</v>
+        <v>0.84763500000000003</v>
       </c>
       <c r="AL55">
-        <v>0.97240300000000002</v>
+        <v>0.96015600000000001</v>
       </c>
       <c r="AM55">
         <v>7</v>
@@ -10702,25 +10723,25 @@
         <v>0</v>
       </c>
       <c r="BC55">
-        <v>1.853731</v>
+        <v>2.0661659999999999</v>
       </c>
       <c r="BD55">
-        <v>36001.795314000003</v>
+        <v>36002.060219999999</v>
       </c>
       <c r="BE55">
-        <v>54000.4617</v>
+        <v>53999.843367000001</v>
       </c>
       <c r="BF55">
-        <v>13365</v>
+        <v>12398</v>
       </c>
       <c r="BG55">
-        <v>22908.9</v>
+        <v>22709.3</v>
       </c>
       <c r="BH55">
-        <v>4441.8005000000003</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI55">
-        <v>4441.8</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ55">
         <v>-5.0000000000000001E-4</v>
@@ -10743,22 +10764,22 @@
         <v>63</v>
       </c>
       <c r="F56" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G56" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H56" t="s">
         <v>64</v>
       </c>
       <c r="I56">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J56" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L56" t="s">
         <v>65</v>
@@ -10767,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="N56" s="1">
-        <v>9.5864583333333338E-4</v>
+        <v>9.529976851851852E-4</v>
       </c>
       <c r="O56" t="s">
         <v>66</v>
@@ -10803,31 +10824,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD56">
-        <v>111343.945697</v>
+        <v>129296.185199</v>
       </c>
       <c r="AE56">
-        <v>111343.945697</v>
+        <v>129296.185199</v>
       </c>
       <c r="AF56">
-        <v>1259.608532</v>
+        <v>1555.45678</v>
       </c>
       <c r="AG56">
-        <v>0.88187099999999996</v>
+        <v>0.67155200000000004</v>
       </c>
       <c r="AH56">
         <v>1</v>
       </c>
       <c r="AI56">
-        <v>376.52027099999998</v>
+        <v>405.74008400000002</v>
       </c>
       <c r="AJ56">
-        <v>27948835.097126</v>
+        <v>34973763.385098003</v>
       </c>
       <c r="AK56">
-        <v>0.94924299999999995</v>
+        <v>0.83975</v>
       </c>
       <c r="AL56">
-        <v>0.97870299999999999</v>
+        <v>0.95231399999999999</v>
       </c>
       <c r="AM56">
         <v>7</v>
@@ -10878,25 +10899,25 @@
         <v>0</v>
       </c>
       <c r="BC56">
-        <v>2.5089990000000002</v>
+        <v>2.274743</v>
       </c>
       <c r="BD56">
-        <v>45002.495314</v>
+        <v>45002.260219999996</v>
       </c>
       <c r="BE56">
-        <v>54000.261700000003</v>
+        <v>53999.743367000003</v>
       </c>
       <c r="BF56">
-        <v>4364.3</v>
+        <v>3397.8</v>
       </c>
       <c r="BG56">
-        <v>22908.7</v>
+        <v>22709.200000000001</v>
       </c>
       <c r="BH56">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI56">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ56">
         <v>-5.0000000000000001E-4</v>
@@ -10919,22 +10940,22 @@
         <v>63</v>
       </c>
       <c r="F57" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G57" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H57" t="s">
         <v>64</v>
       </c>
       <c r="I57">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J57" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L57" t="s">
         <v>65</v>
@@ -10943,7 +10964,7 @@
         <v>78</v>
       </c>
       <c r="N57" s="1">
-        <v>9.6979166666666665E-4</v>
+        <v>9.6402777777777795E-4</v>
       </c>
       <c r="O57" t="s">
         <v>66</v>
@@ -10979,31 +11000,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD57">
-        <v>116144.980459</v>
+        <v>136000.10727199999</v>
       </c>
       <c r="AE57">
-        <v>116144.980459</v>
+        <v>136000.10727199999</v>
       </c>
       <c r="AF57">
-        <v>1471.316431</v>
+        <v>1547.0213020000001</v>
       </c>
       <c r="AG57">
-        <v>0.67421500000000001</v>
+        <v>0.71409599999999995</v>
       </c>
       <c r="AH57">
         <v>1</v>
       </c>
       <c r="AI57">
-        <v>384.55218400000001</v>
+        <v>416.12583999999998</v>
       </c>
       <c r="AJ57">
-        <v>29775870.579778001</v>
+        <v>37728772.580590002</v>
       </c>
       <c r="AK57">
-        <v>0.85625200000000001</v>
+        <v>0.86299599999999999</v>
       </c>
       <c r="AL57">
-        <v>0.91959100000000005</v>
+        <v>0.95882400000000001</v>
       </c>
       <c r="AM57">
         <v>7</v>
@@ -11054,25 +11075,25 @@
         <v>0</v>
       </c>
       <c r="BC57">
-        <v>2.3956200000000001</v>
+        <v>2.7831640000000002</v>
       </c>
       <c r="BD57">
-        <v>54002.395314000001</v>
+        <v>54002.760219999996</v>
       </c>
       <c r="BE57">
-        <v>53999.9617</v>
+        <v>53999.643366999997</v>
       </c>
       <c r="BF57">
-        <v>-4635.6000000000004</v>
+        <v>-5602.7</v>
       </c>
       <c r="BG57">
-        <v>22908.400000000001</v>
+        <v>22709.1</v>
       </c>
       <c r="BH57">
-        <v>4441.8005000000003</v>
+        <v>4399.8005000000003</v>
       </c>
       <c r="BI57">
-        <v>4441.8</v>
+        <v>4399.8</v>
       </c>
       <c r="BJ57">
         <v>-5.0000000000000001E-4</v>
@@ -11095,22 +11116,22 @@
         <v>63</v>
       </c>
       <c r="F58" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G58" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H58" t="s">
         <v>64</v>
       </c>
       <c r="I58">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J58" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L58" t="s">
         <v>65</v>
@@ -11119,7 +11140,7 @@
         <v>79</v>
       </c>
       <c r="N58" s="1">
-        <v>9.8089120370370366E-4</v>
+        <v>9.7499999999999985E-4</v>
       </c>
       <c r="O58" t="s">
         <v>66</v>
@@ -11155,31 +11176,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD58">
-        <v>116526.809821</v>
+        <v>137596.27919500001</v>
       </c>
       <c r="AE58">
-        <v>116526.809821</v>
+        <v>137596.27919500001</v>
       </c>
       <c r="AF58">
-        <v>1281.6014270000001</v>
+        <v>1557.997298</v>
       </c>
       <c r="AG58">
-        <v>0.891517</v>
+        <v>0.71233299999999999</v>
       </c>
       <c r="AH58">
         <v>1</v>
       </c>
       <c r="AI58">
-        <v>385.18377700000002</v>
+        <v>418.56065699999999</v>
       </c>
       <c r="AJ58">
-        <v>29922824.508136999</v>
+        <v>38394926.045472004</v>
       </c>
       <c r="AK58">
-        <v>0.95573699999999995</v>
+        <v>0.86307699999999998</v>
       </c>
       <c r="AL58">
-        <v>0.97600699999999996</v>
+        <v>0.95627700000000004</v>
       </c>
       <c r="AM58">
         <v>7</v>
@@ -11230,25 +11251,25 @@
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>1.795722</v>
+        <v>1.213795</v>
       </c>
       <c r="BD58">
-        <v>63001.795314000003</v>
+        <v>63001.160219999998</v>
       </c>
       <c r="BE58">
-        <v>53999.9617</v>
+        <v>53999.643366999997</v>
       </c>
       <c r="BF58">
-        <v>-13635</v>
+        <v>-14601.1</v>
       </c>
       <c r="BG58">
-        <v>22908.400000000001</v>
+        <v>22709.1</v>
       </c>
       <c r="BH58">
-        <v>4441.8005000000003</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI58">
-        <v>4441.8</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ58">
         <v>-5.0000000000000001E-4</v>
@@ -11271,22 +11292,22 @@
         <v>63</v>
       </c>
       <c r="F59" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G59" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H59" t="s">
         <v>64</v>
       </c>
       <c r="I59">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J59" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L59" t="s">
         <v>65</v>
@@ -11295,7 +11316,7 @@
         <v>80</v>
       </c>
       <c r="N59" s="1">
-        <v>9.9212962962962948E-4</v>
+        <v>9.8609953703703707E-4</v>
       </c>
       <c r="O59" t="s">
         <v>66</v>
@@ -11331,31 +11352,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD59">
-        <v>116839.78470800001</v>
+        <v>129440.153647</v>
       </c>
       <c r="AE59">
-        <v>116839.78470800001</v>
+        <v>129440.153647</v>
       </c>
       <c r="AF59">
-        <v>1305.5593080000001</v>
+        <v>1454.5851210000001</v>
       </c>
       <c r="AG59">
-        <v>0.86140499999999998</v>
+        <v>0.76877700000000004</v>
       </c>
       <c r="AH59">
         <v>1</v>
       </c>
       <c r="AI59">
-        <v>385.70070600000003</v>
+        <v>405.965913</v>
       </c>
       <c r="AJ59">
-        <v>30043458.268066</v>
+        <v>35032193.412869997</v>
       </c>
       <c r="AK59">
-        <v>0.94308999999999998</v>
+        <v>0.89161000000000001</v>
       </c>
       <c r="AL59">
-        <v>0.968503</v>
+        <v>0.96705399999999997</v>
       </c>
       <c r="AM59">
         <v>7</v>
@@ -11406,25 +11427,25 @@
         <v>0</v>
       </c>
       <c r="BC59">
-        <v>1.601297</v>
+        <v>1.6980919999999999</v>
       </c>
       <c r="BD59">
-        <v>72001.595314000006</v>
+        <v>72001.660220000005</v>
       </c>
       <c r="BE59">
-        <v>53999.861700000001</v>
+        <v>53999.643366999997</v>
       </c>
       <c r="BF59">
-        <v>-22634.799999999999</v>
+        <v>-23601.599999999999</v>
       </c>
       <c r="BG59">
-        <v>22908.3</v>
+        <v>22709.1</v>
       </c>
       <c r="BH59">
-        <v>4441.8254999999999</v>
+        <v>4399.8254999999999</v>
       </c>
       <c r="BI59">
-        <v>4441.8249999999998</v>
+        <v>4399.8249999999998</v>
       </c>
       <c r="BJ59">
         <v>-5.0000000000000001E-4</v>
@@ -11447,22 +11468,22 @@
         <v>63</v>
       </c>
       <c r="F60" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G60" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H60" t="s">
         <v>64</v>
       </c>
       <c r="I60">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J60" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L60" t="s">
         <v>65</v>
@@ -11471,7 +11492,7 @@
         <v>81</v>
       </c>
       <c r="N60" s="1">
-        <v>1.0032986111111111E-3</v>
+        <v>9.9733796296296311E-4</v>
       </c>
       <c r="O60" t="s">
         <v>66</v>
@@ -11507,31 +11528,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD60">
-        <v>108533.431214</v>
+        <v>130804.724153</v>
       </c>
       <c r="AE60">
-        <v>108533.431214</v>
+        <v>130804.724153</v>
       </c>
       <c r="AF60">
-        <v>1243.8886379999999</v>
+        <v>1540.9866939999999</v>
       </c>
       <c r="AG60">
-        <v>0.88147600000000004</v>
+        <v>0.69220599999999999</v>
       </c>
       <c r="AH60">
         <v>1</v>
       </c>
       <c r="AI60">
-        <v>371.737887</v>
+        <v>408.100168</v>
       </c>
       <c r="AJ60">
-        <v>26897325.584224999</v>
+        <v>35587619.967565998</v>
       </c>
       <c r="AK60">
-        <v>0.95356799999999997</v>
+        <v>0.85077899999999995</v>
       </c>
       <c r="AL60">
-        <v>0.96940899999999997</v>
+        <v>0.956318</v>
       </c>
       <c r="AM60">
         <v>7</v>
@@ -11582,25 +11603,25 @@
         <v>0</v>
       </c>
       <c r="BC60">
-        <v>1.2032879999999999</v>
+        <v>1.118595</v>
       </c>
       <c r="BD60">
-        <v>81001.195313999997</v>
+        <v>81001.060219999999</v>
       </c>
       <c r="BE60">
-        <v>53999.861700000001</v>
+        <v>53999.643366999997</v>
       </c>
       <c r="BF60">
-        <v>-31634.400000000001</v>
+        <v>-32601</v>
       </c>
       <c r="BG60">
-        <v>22908.3</v>
+        <v>22709.1</v>
       </c>
       <c r="BH60">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI60">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ60">
         <v>-5.0000000000000001E-4</v>
@@ -11623,22 +11644,22 @@
         <v>63</v>
       </c>
       <c r="F61" s="1">
-        <v>1.1636111111111111E-3</v>
+        <v>1.1657407407407406E-3</v>
       </c>
       <c r="G61" s="2">
-        <v>43864.560416666667</v>
+        <v>43864.553472222222</v>
       </c>
       <c r="H61" t="s">
         <v>64</v>
       </c>
       <c r="I61">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J61" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="2">
-        <v>43864.559027777781</v>
+        <v>43864.552083333336</v>
       </c>
       <c r="L61" t="s">
         <v>65</v>
@@ -11647,7 +11668,7 @@
         <v>82</v>
       </c>
       <c r="N61" s="1">
-        <v>1.0143287037037037E-3</v>
+        <v>1.0085763888888889E-3</v>
       </c>
       <c r="O61" t="s">
         <v>66</v>
@@ -11683,31 +11704,31 @@
         <v>2.5018989999999999</v>
       </c>
       <c r="AD61">
-        <v>110473.875512</v>
+        <v>125365.22062199999</v>
       </c>
       <c r="AE61">
-        <v>110473.875512</v>
+        <v>125365.22062199999</v>
       </c>
       <c r="AF61">
-        <v>1227.1164269999999</v>
+        <v>1383.1882639999999</v>
       </c>
       <c r="AG61">
-        <v>0.92193000000000003</v>
+        <v>0.82342599999999999</v>
       </c>
       <c r="AH61">
         <v>1</v>
       </c>
       <c r="AI61">
-        <v>375.04627299999999</v>
+        <v>399.52466299999998</v>
       </c>
       <c r="AJ61">
-        <v>27621876.856718</v>
+        <v>33390998.356112</v>
       </c>
       <c r="AK61">
-        <v>0.96921900000000005</v>
+        <v>0.92514300000000005</v>
       </c>
       <c r="AL61">
-        <v>0.98141900000000004</v>
+        <v>0.96207100000000001</v>
       </c>
       <c r="AM61">
         <v>7</v>
@@ -11758,25 +11779,25 @@
         <v>0</v>
       </c>
       <c r="BC61">
-        <v>0.71812900000000002</v>
+        <v>1.6460349999999999</v>
       </c>
       <c r="BD61">
-        <v>89999.295314000003</v>
+        <v>89998.360220000002</v>
       </c>
       <c r="BE61">
-        <v>53999.861700000001</v>
+        <v>54000.143366999997</v>
       </c>
       <c r="BF61">
-        <v>-40632.5</v>
+        <v>-41598.300000000003</v>
       </c>
       <c r="BG61">
-        <v>22908.3</v>
+        <v>22709.599999999999</v>
       </c>
       <c r="BH61">
-        <v>4441.8254999999999</v>
+        <v>4399.8504999999996</v>
       </c>
       <c r="BI61">
-        <v>4441.8249999999998</v>
+        <v>4399.8500000000004</v>
       </c>
       <c r="BJ61">
         <v>-5.0000000000000001E-4</v>
@@ -11788,12 +11809,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09722137-BD89-4FCF-BDA9-A6C67CEEF9B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6B0B50-2B5A-43F3-9D69-7E40EFAC7DF4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -11803,7 +11822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77070BD1-389A-4FF0-9E05-A94724683117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64ED2B9-13D2-49E4-9454-A6F1DEFDDB65}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11816,6 +11835,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008818E63D4ADEF54E85DE163C5977EF6B" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ee57b7a5b82093af00173df466ef13c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1846450196cc633a4453163967de7cc" ns3:_="">
     <xsd:import namespace="6e8dfdbb-eb1c-41e2-bbf5-9f5a6820c125"/>
@@ -11985,23 +12019,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D62B49C3-6F6F-4279-AD48-8AA4EB9F66E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAE9DEF-EE5E-4B1B-B15E-61337999B59B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E205D106-C0EA-4953-ADC6-8930EF254137}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DDBA2-E0ED-489E-A12D-C071E639DD2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -12016,21 +12052,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2486E74-53C1-4CB5-875A-841A24F99AEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC41CAB9-0634-4D31-AAAC-0818EAE16C81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>